--- a/Bachelor/unnamed.xlsx
+++ b/Bachelor/unnamed.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C21"/>
+  <dimension ref="A1:C42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -385,10 +385,8 @@
       <c r="B2" t="n">
         <v>0</v>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="C2" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="3">
@@ -396,12 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>5**(1/16)</t>
-        </is>
+        <v>0.1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="4">
@@ -409,12 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>10**(1/16)</t>
-        </is>
+        <v>0.2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="5">
@@ -422,12 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>15**(1/16)</t>
-        </is>
+        <v>0.3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="6">
@@ -435,12 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>2**(1/8)*5**(1/16)</t>
-        </is>
+        <v>0.4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="7">
@@ -448,12 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>5**(1/8)</t>
-        </is>
+        <v>0.5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="8">
@@ -461,12 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.3</v>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>30**(1/16)</t>
-        </is>
+        <v>0.6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="9">
@@ -474,12 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>35**(1/16)</t>
-        </is>
+        <v>0.7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="10">
@@ -487,12 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>40**(1/16)</t>
-        </is>
+        <v>0.7999999999999999</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="11">
@@ -500,12 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.45</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>3**(1/8)*5**(1/16)</t>
-        </is>
+        <v>0.8999999999999999</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="12">
@@ -513,12 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>2**(1/16)*5**(1/8)</t>
-        </is>
+        <v>0.9999999999999999</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="13">
@@ -526,12 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>55**(1/16)</t>
-        </is>
+        <v>1.1</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="14">
@@ -539,12 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>15**(1/16)*2**(1/8)</t>
-        </is>
+        <v>1.2</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
     <row r="15">
@@ -552,12 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>65**(1/16)</t>
-        </is>
+        <v>1.3</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-0.5879884015681682</v>
       </c>
     </row>
     <row r="16">
@@ -565,12 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>70**(1/16)</t>
-        </is>
+        <v>1.4</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-0.23083342490429</v>
       </c>
     </row>
     <row r="17">
@@ -578,12 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>3**(1/16)*5**(1/8)</t>
-        </is>
+        <v>1.5</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-0.4445629679336207</v>
       </c>
     </row>
     <row r="18">
@@ -591,12 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>2**(1/4)*5**(1/16)</t>
-        </is>
+        <v>1.6</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-1.427177624282194</v>
       </c>
     </row>
     <row r="19">
@@ -604,12 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.85</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>85**(1/16)</t>
-        </is>
+        <v>1.7</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-0.7306089166755783</v>
       </c>
     </row>
     <row r="20">
@@ -617,12 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9</v>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>10**(1/16)*3**(1/8)</t>
-        </is>
+        <v>1.8</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-1.084539325413061</v>
       </c>
     </row>
     <row r="21">
@@ -630,12 +592,241 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.95</v>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>95**(1/16)</t>
-        </is>
+        <v>1.900000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-0.9966502726107365</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>2</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-0.848269066083617</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>2.100000000000001</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-0.1776298885321239</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>2.200000000000001</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-0.4128318169765635</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>2.300000000000001</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.205243067321135</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>2.400000000000001</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-1.271615134057356</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>2.500000000000001</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-0.1009179963526776</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>2.600000000000001</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>2.700000000000001</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>2.800000000000001</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>2.900000000000001</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>3.000000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>3.100000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>3.200000000000002</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>3.300000000000002</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>3.400000000000002</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>3.500000000000002</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>3.600000000000002</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>3.700000000000002</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>3.800000000000002</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>3.900000000000002</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.01016865175040493</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>4.000000000000002</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.01016865175040493</v>
       </c>
     </row>
   </sheetData>

--- a/Bachelor/unnamed.xlsx
+++ b/Bachelor/unnamed.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C42"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -377,6 +377,21 @@
           <t>y0</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>y1</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>y2</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>y3</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -386,7 +401,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D2" t="n">
+        <v>-1.039691066741943</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +421,16 @@
         <v>0.1</v>
       </c>
       <c r="C3" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +441,16 @@
         <v>0.2</v>
       </c>
       <c r="C4" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D4" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +461,16 @@
         <v>0.3</v>
       </c>
       <c r="C5" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D5" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +481,16 @@
         <v>0.4</v>
       </c>
       <c r="C6" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D6" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +501,16 @@
         <v>0.5</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +521,16 @@
         <v>0.6</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +541,16 @@
         <v>0.7</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D9" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +561,16 @@
         <v>0.7999999999999999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +581,16 @@
         <v>0.8999999999999999</v>
       </c>
       <c r="C11" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D11" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F11" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +601,16 @@
         <v>0.9999999999999999</v>
       </c>
       <c r="C12" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D12" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +621,16 @@
         <v>1.1</v>
       </c>
       <c r="C13" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D13" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +641,16 @@
         <v>1.2</v>
       </c>
       <c r="C14" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D14" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +661,16 @@
         <v>1.3</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5879884015681682</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D15" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +681,16 @@
         <v>1.4</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.23083342490429</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D16" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +701,16 @@
         <v>1.5</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.4445629679336207</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D17" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.05824089050293</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +721,16 @@
         <v>1.6</v>
       </c>
       <c r="C18" t="n">
-        <v>-1.427177624282194</v>
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="D18" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
     <row r="19">
@@ -573,260 +741,16 @@
         <v>1.7</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.7306089166755783</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="C20" t="n">
-        <v>-1.084539325413061</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1.900000000000001</v>
-      </c>
-      <c r="C21" t="n">
-        <v>-0.9966502726107365</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="n">
-        <v>2</v>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.848269066083617</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="n">
-        <v>2.100000000000001</v>
-      </c>
-      <c r="C23" t="n">
-        <v>-0.1776298885321239</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="n">
-        <v>2.200000000000001</v>
-      </c>
-      <c r="C24" t="n">
-        <v>-0.4128318169765635</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="n">
-        <v>2.300000000000001</v>
-      </c>
-      <c r="C25" t="n">
-        <v>-1.205243067321135</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="n">
-        <v>2.400000000000001</v>
-      </c>
-      <c r="C26" t="n">
-        <v>-1.271615134057356</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="n">
-        <v>2.500000000000001</v>
-      </c>
-      <c r="C27" t="n">
-        <v>-0.1009179963526776</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="n">
-        <v>2.600000000000001</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="n">
-        <v>2.700000000000001</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="n">
-        <v>2.800000000000001</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="n">
-        <v>2.900000000000001</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="n">
-        <v>3.000000000000001</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="n">
-        <v>3.100000000000001</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>3.200000000000002</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>3.300000000000002</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>3.400000000000002</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>3.500000000000002</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>3.600000000000002</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>3.700000000000002</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>3.800000000000002</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>3.900000000000002</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.01016865175040493</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>4.000000000000002</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.01016865175040493</v>
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="D19" t="n">
+        <v>-1.058248805999756</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-1.05824089050293</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.058248805999756</v>
       </c>
     </row>
   </sheetData>

--- a/Bachelor/unnamed.xlsx
+++ b/Bachelor/unnamed.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D167"/>
+  <dimension ref="A1:D555"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -388,11 +388,13 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C2" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D2" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="3">
@@ -400,11 +402,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C3" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.08452351689338684</v>
+      </c>
       <c r="D3" t="n">
-        <v>1.05824089050293</v>
+        <v>1.032250690460205</v>
       </c>
     </row>
     <row r="4">
@@ -412,11 +416,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C4" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.09349462985992432</v>
+      </c>
       <c r="D4" t="n">
-        <v>1.058248805999756</v>
+        <v>1.036771774291992</v>
       </c>
     </row>
     <row r="5">
@@ -424,11 +430,13 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C5" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.0543436348438263</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.05824089050293</v>
+        <v>1.046737003326416</v>
       </c>
     </row>
     <row r="6">
@@ -436,11 +444,13 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C6" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.07938701510429383</v>
+      </c>
       <c r="D6" t="n">
-        <v>1.05824089050293</v>
+        <v>1.03370246887207</v>
       </c>
     </row>
     <row r="7">
@@ -448,11 +458,13 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C7" t="inlineStr"/>
+        <v>0.01</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.09263460636138916</v>
+      </c>
       <c r="D7" t="n">
-        <v>1.058248805999756</v>
+        <v>1.03971471786499</v>
       </c>
     </row>
     <row r="8">
@@ -460,11 +472,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C8" t="inlineStr"/>
+        <v>0.01</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.08207756280899048</v>
+      </c>
       <c r="D8" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031232833862305</v>
       </c>
     </row>
     <row r="9">
@@ -472,11 +486,13 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C9" t="inlineStr"/>
+        <v>0.01</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1006352305412292</v>
+      </c>
       <c r="D9" t="n">
-        <v>1.058248805999756</v>
+        <v>1.04537992477417</v>
       </c>
     </row>
     <row r="10">
@@ -484,11 +500,13 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C10" t="inlineStr"/>
+        <v>0.01</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1136618971824646</v>
+      </c>
       <c r="D10" t="n">
-        <v>1.058248805999756</v>
+        <v>1.048906803131104</v>
       </c>
     </row>
     <row r="11">
@@ -496,33 +514,35 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C11" t="inlineStr"/>
-      <c r="D11" t="n">
-        <v>1.05824089050293</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.02</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C13" t="inlineStr"/>
+        <v>0.02</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D13" t="n">
         <v>1.05824089050293</v>
       </c>
@@ -532,11 +552,13 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C14" t="inlineStr"/>
+        <v>0.02</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.09145897030830383</v>
+      </c>
       <c r="D14" t="n">
-        <v>1.058248805999756</v>
+        <v>1.04367561340332</v>
       </c>
     </row>
     <row r="15">
@@ -544,11 +566,13 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C15" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.06295969486236572</v>
+      </c>
       <c r="D15" t="n">
-        <v>1.058248805999756</v>
+        <v>1.034964847564697</v>
       </c>
     </row>
     <row r="16">
@@ -556,11 +580,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>0.03</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.08229059576988221</v>
+      </c>
       <c r="D16" t="n">
-        <v>1.05824089050293</v>
+        <v>1.031414318084717</v>
       </c>
     </row>
     <row r="17">
@@ -568,11 +594,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C17" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.1130149006843567</v>
+      </c>
       <c r="D17" t="n">
-        <v>1.058248805999756</v>
+        <v>1.047241973876953</v>
       </c>
     </row>
     <row r="18">
@@ -580,11 +608,13 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C18" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.09088298678398132</v>
+      </c>
       <c r="D18" t="n">
-        <v>1.05824089050293</v>
+        <v>1.043888664245606</v>
       </c>
     </row>
     <row r="19">
@@ -592,11 +622,13 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C19" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.08304016590118408</v>
+      </c>
       <c r="D19" t="n">
-        <v>1.058248805999756</v>
+        <v>1.039912033081055</v>
       </c>
     </row>
     <row r="20">
@@ -604,11 +636,13 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C20" t="inlineStr"/>
+        <v>0.04</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.112344241142273</v>
+      </c>
       <c r="D20" t="n">
-        <v>1.058248805999756</v>
+        <v>1.048646450042725</v>
       </c>
     </row>
     <row r="21">
@@ -616,11 +650,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C21" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D21" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="22">
@@ -628,11 +664,13 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C22" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05433574318885803</v>
+      </c>
       <c r="D22" t="n">
-        <v>1.058248805999756</v>
+        <v>1.027303504943848</v>
       </c>
     </row>
     <row r="23">
@@ -640,11 +678,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C23" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.07694106698036193</v>
+      </c>
       <c r="D23" t="n">
-        <v>1.05824089050293</v>
+        <v>1.039825248718262</v>
       </c>
     </row>
     <row r="24">
@@ -652,11 +692,13 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C24" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.09376289844512939</v>
+      </c>
       <c r="D24" t="n">
-        <v>1.05824089050293</v>
+        <v>1.037410831451416</v>
       </c>
     </row>
     <row r="25">
@@ -664,9 +706,11 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
+        <v>0.05</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D25" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -676,33 +720,35 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C26" t="inlineStr"/>
-      <c r="D26" t="n">
-        <v>1.05824089050293</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.06</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C28" t="inlineStr"/>
+        <v>0.06</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D28" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -712,11 +758,13 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
+        <v>0.06</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.09519890546798707</v>
+      </c>
       <c r="D29" t="n">
-        <v>1.058248805999756</v>
+        <v>1.03499641418457</v>
       </c>
     </row>
     <row r="30">
@@ -724,11 +772,13 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C30" t="inlineStr"/>
+        <v>0.06</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.07894516587257386</v>
+      </c>
       <c r="D30" t="n">
-        <v>1.058248805999756</v>
+        <v>1.033962821960449</v>
       </c>
     </row>
     <row r="31">
@@ -736,11 +786,13 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C31" t="inlineStr"/>
+        <v>0.06</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D31" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="32">
@@ -748,11 +800,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C32" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.06809619069099426</v>
+      </c>
       <c r="D32" t="n">
-        <v>1.058248805999756</v>
+        <v>1.030775165557861</v>
       </c>
     </row>
     <row r="33">
@@ -760,11 +814,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C33" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.09641399383544921</v>
+      </c>
       <c r="D33" t="n">
-        <v>1.058248805999756</v>
+        <v>1.040188217163086</v>
       </c>
     </row>
     <row r="34">
@@ -772,11 +828,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C34" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.1094169855117798</v>
+      </c>
       <c r="D34" t="n">
-        <v>1.058248805999756</v>
+        <v>1.04532470703125</v>
       </c>
     </row>
     <row r="35">
@@ -784,11 +842,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C35" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.09113547205924988</v>
+      </c>
       <c r="D35" t="n">
-        <v>1.05824089050293</v>
+        <v>1.036669158935547</v>
       </c>
     </row>
     <row r="36">
@@ -796,11 +856,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C36" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.09801569581031799</v>
+      </c>
       <c r="D36" t="n">
-        <v>1.058248805999756</v>
+        <v>1.039044094085693</v>
       </c>
     </row>
     <row r="37">
@@ -808,11 +870,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C37" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.09484385251998902</v>
+      </c>
       <c r="D37" t="n">
-        <v>1.058248805999756</v>
+        <v>1.035225296020508</v>
       </c>
     </row>
     <row r="38">
@@ -820,11 +884,13 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C38" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.1073103070259094</v>
+      </c>
       <c r="D38" t="n">
-        <v>1.058248805999756</v>
+        <v>1.042342185974121</v>
       </c>
     </row>
     <row r="39">
@@ -832,9 +898,11 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C39" t="inlineStr"/>
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D39" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -844,9 +912,11 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>0.08</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D40" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -856,11 +926,13 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C41" t="inlineStr"/>
+        <v>0.08</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03532833755016327</v>
+      </c>
       <c r="D41" t="n">
-        <v>1.05824089050293</v>
+        <v>1.042791938781738</v>
       </c>
     </row>
     <row r="42">
@@ -868,11 +940,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C42" t="inlineStr"/>
+        <v>0.08</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.0830875039100647</v>
+      </c>
       <c r="D42" t="n">
-        <v>1.058248805999756</v>
+        <v>1.033970737457275</v>
       </c>
     </row>
     <row r="43">
@@ -880,11 +954,13 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C43" t="inlineStr"/>
+        <v>0.08</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.1142694354057312</v>
+      </c>
       <c r="D43" t="n">
-        <v>1.058248805999756</v>
+        <v>1.045798110961914</v>
       </c>
     </row>
     <row r="44">
@@ -892,11 +968,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C44" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.05692371726036072</v>
+      </c>
       <c r="D44" t="n">
-        <v>1.058248805999756</v>
+        <v>1.026467132568359</v>
       </c>
     </row>
     <row r="45">
@@ -904,11 +982,13 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C45" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.1132437109947205</v>
+      </c>
       <c r="D45" t="n">
-        <v>1.058248805999756</v>
+        <v>1.04904088973999</v>
       </c>
     </row>
     <row r="46">
@@ -916,11 +996,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C46" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.09179824590682983</v>
+      </c>
       <c r="D46" t="n">
-        <v>1.05824089050293</v>
+        <v>1.034846496582031</v>
       </c>
     </row>
     <row r="47">
@@ -928,11 +1010,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C47" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D47" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="48">
@@ -940,9 +1024,11 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C48" t="inlineStr"/>
+        <v>0.09</v>
+      </c>
+      <c r="C48" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D48" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -952,21 +1038,23 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C49" t="inlineStr"/>
-      <c r="D49" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C50" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D50" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -976,11 +1064,13 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C51" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.0937865674495697</v>
+      </c>
       <c r="D51" t="n">
-        <v>1.058248805999756</v>
+        <v>1.036661243438721</v>
       </c>
     </row>
     <row r="52">
@@ -988,9 +1078,11 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C52" t="inlineStr"/>
+        <v>0.1</v>
+      </c>
+      <c r="C52" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D52" t="n">
         <v>1.05824089050293</v>
       </c>
@@ -1000,23 +1092,25 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C53" t="inlineStr"/>
-      <c r="D53" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.11</v>
+      </c>
+      <c r="C53" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C54" t="inlineStr"/>
+        <v>0.11</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.09042536020278931</v>
+      </c>
       <c r="D54" t="n">
-        <v>1.05824089050293</v>
+        <v>1.036464023590088</v>
       </c>
     </row>
     <row r="55">
@@ -1024,9 +1118,11 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C55" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C55" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D55" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1036,11 +1132,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C56" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.09298177361488343</v>
+      </c>
       <c r="D56" t="n">
-        <v>1.058248805999756</v>
+        <v>1.033962821960449</v>
       </c>
     </row>
     <row r="57">
@@ -1048,11 +1146,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C57" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.09331315755844116</v>
+      </c>
       <c r="D57" t="n">
-        <v>1.058248805999756</v>
+        <v>1.034751892089844</v>
       </c>
     </row>
     <row r="58">
@@ -1060,11 +1160,13 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C58" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.08577015995979309</v>
+      </c>
       <c r="D58" t="n">
-        <v>1.05824089050293</v>
+        <v>1.032021808624268</v>
       </c>
     </row>
     <row r="59">
@@ -1072,11 +1174,13 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C59" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D59" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="60">
@@ -1084,9 +1188,11 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
+        <v>0.12</v>
+      </c>
+      <c r="C60" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D60" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1096,9 +1202,11 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C61" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="C61" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D61" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1108,11 +1216,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C62" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.05205548405647278</v>
+      </c>
       <c r="D62" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031264400482178</v>
       </c>
     </row>
     <row r="63">
@@ -1120,11 +1230,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C63" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="C63" t="n">
+        <v>0.1070262670516968</v>
+      </c>
       <c r="D63" t="n">
-        <v>1.05824089050293</v>
+        <v>1.048007297515869</v>
       </c>
     </row>
     <row r="64">
@@ -1132,11 +1244,13 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C64" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.09021232128143311</v>
+      </c>
       <c r="D64" t="n">
-        <v>1.05824089050293</v>
+        <v>1.044456768035889</v>
       </c>
     </row>
     <row r="65">
@@ -1144,11 +1258,13 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C65" t="inlineStr"/>
+        <v>0.13</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.0711812436580658</v>
+      </c>
       <c r="D65" t="n">
-        <v>1.05824089050293</v>
+        <v>1.030988216400146</v>
       </c>
     </row>
     <row r="66">
@@ -1156,33 +1272,35 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C66" t="inlineStr"/>
-      <c r="D66" t="n">
-        <v>1.05824089050293</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="C66" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C67" t="inlineStr"/>
-      <c r="D67" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.14</v>
+      </c>
+      <c r="C67" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C68" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="C68" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D68" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1192,11 +1310,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C69" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="C69" t="n">
+        <v>0.07774586081504822</v>
+      </c>
       <c r="D69" t="n">
-        <v>1.058248805999756</v>
+        <v>1.034791278839111</v>
       </c>
     </row>
     <row r="70">
@@ -1204,11 +1324,13 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C70" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="C70" t="n">
+        <v>0.08763223886489868</v>
+      </c>
       <c r="D70" t="n">
-        <v>1.058248805999756</v>
+        <v>1.035509300231934</v>
       </c>
     </row>
     <row r="71">
@@ -1216,9 +1338,11 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C71" t="inlineStr"/>
+        <v>0.14</v>
+      </c>
+      <c r="C71" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D71" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1228,11 +1352,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C72" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C72" t="n">
+        <v>0.07432153224945068</v>
+      </c>
       <c r="D72" t="n">
-        <v>1.058248805999756</v>
+        <v>1.037450313568115</v>
       </c>
     </row>
     <row r="73">
@@ -1240,11 +1366,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C73" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C73" t="n">
+        <v>0.08179351687431335</v>
+      </c>
       <c r="D73" t="n">
-        <v>1.058248805999756</v>
+        <v>1.033552551269531</v>
       </c>
     </row>
     <row r="74">
@@ -1252,11 +1380,13 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C74" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C74" t="n">
+        <v>0.09923078417778015</v>
+      </c>
       <c r="D74" t="n">
-        <v>1.05824089050293</v>
+        <v>1.045253658294678</v>
       </c>
     </row>
     <row r="75">
@@ -1264,11 +1394,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C75" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C75" t="n">
+        <v>0.09654812812805176</v>
+      </c>
       <c r="D75" t="n">
-        <v>1.058248805999756</v>
+        <v>1.036740207672119</v>
       </c>
     </row>
     <row r="76">
@@ -1276,11 +1408,13 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C76" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C76" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D76" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="77">
@@ -1288,9 +1422,11 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C77" t="inlineStr"/>
+        <v>0.15</v>
+      </c>
+      <c r="C77" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D77" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1300,9 +1436,11 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C78" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C78" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D78" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1312,11 +1450,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C79" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C79" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D79" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="80">
@@ -1324,11 +1464,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C80" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C80" t="n">
+        <v>0.06048218011856079</v>
+      </c>
       <c r="D80" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031871891021729</v>
       </c>
     </row>
     <row r="81">
@@ -1336,11 +1478,13 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C81" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.0832531988620758</v>
+      </c>
       <c r="D81" t="n">
-        <v>1.05824089050293</v>
+        <v>1.033789253234863</v>
       </c>
     </row>
     <row r="82">
@@ -1348,11 +1492,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C82" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C82" t="n">
+        <v>0.1068763494491577</v>
+      </c>
       <c r="D82" t="n">
-        <v>1.05824089050293</v>
+        <v>1.048638534545898</v>
       </c>
     </row>
     <row r="83">
@@ -1360,11 +1506,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C83" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C83" t="n">
+        <v>0.01411168277263641</v>
+      </c>
       <c r="D83" t="n">
-        <v>1.058248805999756</v>
+        <v>1.02979679107666</v>
       </c>
     </row>
     <row r="84">
@@ -1372,11 +1520,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C84" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C84" t="n">
+        <v>0.08314273357391358</v>
+      </c>
       <c r="D84" t="n">
-        <v>1.05824089050293</v>
+        <v>1.031579971313477</v>
       </c>
     </row>
     <row r="85">
@@ -1384,11 +1534,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C85" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C85" t="n">
+        <v>0.08163571357727051</v>
+      </c>
       <c r="D85" t="n">
-        <v>1.058248805999756</v>
+        <v>1.040061950683594</v>
       </c>
     </row>
     <row r="86">
@@ -1396,9 +1548,11 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C86" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C86" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D86" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1408,9 +1562,11 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C87" t="inlineStr"/>
+        <v>0.16</v>
+      </c>
+      <c r="C87" t="n">
+        <v>1.05824089050293</v>
+      </c>
       <c r="D87" t="n">
         <v>1.058248805999756</v>
       </c>
@@ -1420,35 +1576,37 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="C88" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.17</v>
+      </c>
+      <c r="C89" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C90" t="inlineStr"/>
+        <v>0.17</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.09464659690856933</v>
+      </c>
       <c r="D90" t="n">
-        <v>1.05824089050293</v>
+        <v>1.04560079574585</v>
       </c>
     </row>
     <row r="91">
@@ -1456,11 +1614,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C91" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.07870846390724182</v>
+      </c>
       <c r="D91" t="n">
-        <v>1.05824089050293</v>
+        <v>1.034373092651367</v>
       </c>
     </row>
     <row r="92">
@@ -1468,11 +1628,13 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C92" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.1104348182678223</v>
+      </c>
       <c r="D92" t="n">
-        <v>1.058248805999756</v>
+        <v>1.044078063964844</v>
       </c>
     </row>
     <row r="93">
@@ -1480,11 +1642,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0.09489119052886963</v>
+      </c>
       <c r="D93" t="n">
-        <v>1.05824089050293</v>
+        <v>1.034680843353271</v>
       </c>
     </row>
     <row r="94">
@@ -1492,11 +1656,13 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C94" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.1191139936447144</v>
+      </c>
       <c r="D94" t="n">
-        <v>1.058248805999756</v>
+        <v>1.046681785583496</v>
       </c>
     </row>
     <row r="95">
@@ -1504,11 +1670,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C95" t="inlineStr"/>
+        <v>0.18</v>
+      </c>
+      <c r="C95" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D95" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="96">
@@ -1516,9 +1684,11 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C96" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C96" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D96" t="n">
         <v>1.05824089050293</v>
       </c>
@@ -1528,11 +1698,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C97" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.08388441205024719</v>
+      </c>
       <c r="D97" t="n">
-        <v>1.05824089050293</v>
+        <v>1.032771396636963</v>
       </c>
     </row>
     <row r="98">
@@ -1540,11 +1712,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C98" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C98" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D98" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="99">
@@ -1552,11 +1726,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C99" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C99" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D99" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="100">
@@ -1564,11 +1740,13 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="C100" t="inlineStr"/>
+        <v>0.19</v>
+      </c>
+      <c r="C100" t="n">
+        <v>1.058248805999756</v>
+      </c>
       <c r="D100" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="101">
@@ -1576,25 +1754,25 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>1.05824089050293</v>
-      </c>
-      <c r="C101" t="inlineStr"/>
-      <c r="D101" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C101" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>1.058248805999756</v>
+        <v>0.2</v>
       </c>
       <c r="C102" t="n">
-        <v>1.05824089050293</v>
+        <v>0.07256991267204285</v>
       </c>
       <c r="D102" t="n">
-        <v>1.058248805999756</v>
+        <v>1.043375778198242</v>
       </c>
     </row>
     <row r="103">
@@ -1602,13 +1780,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>1.05824089050293</v>
+        <v>0.2</v>
       </c>
       <c r="C103" t="n">
-        <v>1.05824089050293</v>
+        <v>0.07087352871894836</v>
       </c>
       <c r="D103" t="n">
-        <v>1.058248805999756</v>
+        <v>1.030514812469483</v>
       </c>
     </row>
     <row r="104">
@@ -1616,13 +1794,13 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>1.05824089050293</v>
+        <v>0.2</v>
       </c>
       <c r="C104" t="n">
-        <v>1.058248805999756</v>
+        <v>0.09988566637039184</v>
       </c>
       <c r="D104" t="n">
-        <v>1.05824089050293</v>
+        <v>1.040211868286133</v>
       </c>
     </row>
     <row r="105">
@@ -1630,13 +1808,13 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>1.058248805999756</v>
+        <v>0.2</v>
       </c>
       <c r="C105" t="n">
-        <v>1.058248805999756</v>
+        <v>0.08777426481246949</v>
       </c>
       <c r="D105" t="n">
-        <v>1.05824089050293</v>
+        <v>1.035130596160889</v>
       </c>
     </row>
     <row r="106">
@@ -1644,13 +1822,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>1.05824089050293</v>
+        <v>0.2</v>
       </c>
       <c r="C106" t="n">
-        <v>1.05824089050293</v>
+        <v>0.1059532046318054</v>
       </c>
       <c r="D106" t="n">
-        <v>1.058248805999756</v>
+        <v>1.039517498016358</v>
       </c>
     </row>
     <row r="107">
@@ -1658,13 +1836,13 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>1.058248805999756</v>
+        <v>0.2</v>
       </c>
       <c r="C107" t="n">
-        <v>1.058248805999756</v>
+        <v>0.08073623776435852</v>
       </c>
       <c r="D107" t="n">
-        <v>1.058248805999756</v>
+        <v>1.033662986755371</v>
       </c>
     </row>
     <row r="108">
@@ -1672,7 +1850,7 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>1.05824089050293</v>
+        <v>0.2</v>
       </c>
       <c r="C108" t="n">
         <v>1.058248805999756</v>
@@ -1686,13 +1864,13 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>1.058248805999756</v>
+        <v>0.21</v>
       </c>
       <c r="C109" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D109" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="110">
@@ -1700,13 +1878,13 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>1.05824089050293</v>
+        <v>0.21</v>
       </c>
       <c r="C110" t="n">
-        <v>1.05824089050293</v>
+        <v>0.07633352279663086</v>
       </c>
       <c r="D110" t="n">
-        <v>1.05824089050293</v>
+        <v>1.033087062835693</v>
       </c>
     </row>
     <row r="111">
@@ -1714,13 +1892,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>1.058248805999756</v>
+        <v>0.21</v>
       </c>
       <c r="C111" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1121706485748291</v>
       </c>
       <c r="D111" t="n">
-        <v>1.058248805999756</v>
+        <v>1.045963764190674</v>
       </c>
     </row>
     <row r="112">
@@ -1728,10 +1906,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>1.05824089050293</v>
+        <v>0.21</v>
       </c>
       <c r="C112" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D112" t="n">
         <v>1.058248805999756</v>
@@ -1742,7 +1920,7 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>1.05824089050293</v>
+        <v>0.21</v>
       </c>
       <c r="C113" t="n">
         <v>1.058248805999756</v>
@@ -1756,13 +1934,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>1.058248805999756</v>
+        <v>0.22</v>
       </c>
       <c r="C114" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D114" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="115">
@@ -1770,13 +1948,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>1.058248805999756</v>
+        <v>0.22</v>
       </c>
       <c r="C115" t="n">
-        <v>1.058248805999756</v>
+        <v>0.05943279266357422</v>
       </c>
       <c r="D115" t="n">
-        <v>1.058248805999756</v>
+        <v>1.026774883270264</v>
       </c>
     </row>
     <row r="116">
@@ -1784,13 +1962,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>1.058248805999756</v>
+        <v>0.22</v>
       </c>
       <c r="C116" t="n">
-        <v>1.05824089050293</v>
+        <v>0.1077916145324707</v>
       </c>
       <c r="D116" t="n">
-        <v>1.058248805999756</v>
+        <v>1.050192928314209</v>
       </c>
     </row>
     <row r="117">
@@ -1798,10 +1976,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>1.058248805999756</v>
+        <v>0.23</v>
       </c>
       <c r="C117" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D117" t="n">
         <v>1.058248805999756</v>
@@ -1812,13 +1990,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>1.05824089050293</v>
+        <v>0.23</v>
       </c>
       <c r="C118" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D118" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="119">
@@ -1826,10 +2004,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>1.058248805999756</v>
+        <v>0.23</v>
       </c>
       <c r="C119" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D119" t="n">
         <v>1.058248805999756</v>
@@ -1840,13 +2018,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>1.058248805999756</v>
+        <v>0.23</v>
       </c>
       <c r="C120" t="n">
-        <v>1.05824089050293</v>
+        <v>0.07010029554367066</v>
       </c>
       <c r="D120" t="n">
-        <v>1.058248805999756</v>
+        <v>1.042081832885742</v>
       </c>
     </row>
     <row r="121">
@@ -1854,13 +2032,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>1.058248805999756</v>
+        <v>0.23</v>
       </c>
       <c r="C121" t="n">
         <v>1.058248805999756</v>
       </c>
       <c r="D121" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="122">
@@ -1868,41 +2046,37 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>1.058248805999756</v>
+        <v>0.24</v>
       </c>
       <c r="C122" t="n">
-        <v>1.058248805999756</v>
-      </c>
-      <c r="D122" t="n">
-        <v>1.058248805999756</v>
-      </c>
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C123" t="n">
         <v>1.058248805999756</v>
       </c>
-      <c r="D123" t="n">
-        <v>1.058248805999756</v>
-      </c>
+      <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C124" t="n">
         <v>1.05824089050293</v>
       </c>
       <c r="D124" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="125">
@@ -1910,13 +2084,13 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>1.058248805999756</v>
+        <v>0.24</v>
       </c>
       <c r="C125" t="n">
-        <v>1.058248805999756</v>
+        <v>0.04648503065109253</v>
       </c>
       <c r="D125" t="n">
-        <v>1.05824089050293</v>
+        <v>1.028045177459717</v>
       </c>
     </row>
     <row r="126">
@@ -1924,13 +2098,13 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C126" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1058032870292664</v>
       </c>
       <c r="D126" t="n">
-        <v>1.058248805999756</v>
+        <v>1.045663928985596</v>
       </c>
     </row>
     <row r="127">
@@ -1938,13 +2112,13 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C127" t="n">
-        <v>1.058248805999756</v>
+        <v>0.09183769822120666</v>
       </c>
       <c r="D127" t="n">
-        <v>1.058248805999756</v>
+        <v>1.044811820983887</v>
       </c>
     </row>
     <row r="128">
@@ -1952,13 +2126,13 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C128" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1073103070259094</v>
       </c>
       <c r="D128" t="n">
-        <v>1.058248805999756</v>
+        <v>1.047186756134033</v>
       </c>
     </row>
     <row r="129">
@@ -1966,13 +2140,13 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>1.05824089050293</v>
+        <v>0.24</v>
       </c>
       <c r="C129" t="n">
-        <v>1.05824089050293</v>
+        <v>0.06882997751235961</v>
       </c>
       <c r="D129" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031895637512207</v>
       </c>
     </row>
     <row r="130">
@@ -1980,13 +2154,13 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>1.058248805999756</v>
+        <v>0.24</v>
       </c>
       <c r="C130" t="n">
-        <v>1.058248805999756</v>
+        <v>0.09233477711677551</v>
       </c>
       <c r="D130" t="n">
-        <v>1.058248805999756</v>
+        <v>1.044543552398682</v>
       </c>
     </row>
     <row r="131">
@@ -1994,13 +2168,13 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>1.058248805999756</v>
+        <v>0.24</v>
       </c>
       <c r="C131" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1098272681236267</v>
       </c>
       <c r="D131" t="n">
-        <v>1.058248805999756</v>
+        <v>1.048441314697266</v>
       </c>
     </row>
     <row r="132">
@@ -2008,13 +2182,13 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>1.058248805999756</v>
+        <v>0.24</v>
       </c>
       <c r="C132" t="n">
         <v>1.058248805999756</v>
       </c>
       <c r="D132" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="133">
@@ -2022,24 +2196,22 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>1.058248805999756</v>
+        <v>0.25</v>
       </c>
       <c r="C133" t="n">
         <v>1.058248805999756</v>
       </c>
-      <c r="D133" t="n">
-        <v>1.058248805999756</v>
-      </c>
+      <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>1.05824089050293</v>
+        <v>0.25</v>
       </c>
       <c r="C134" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D134" t="n">
         <v>1.058248805999756</v>
@@ -2050,10 +2222,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>1.058248805999756</v>
+        <v>0.25</v>
       </c>
       <c r="C135" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D135" t="n">
         <v>1.05824089050293</v>
@@ -2064,13 +2236,13 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>1.058248805999756</v>
+        <v>0.25</v>
       </c>
       <c r="C136" t="n">
-        <v>1.058248805999756</v>
+        <v>0.08915504217147827</v>
       </c>
       <c r="D136" t="n">
-        <v>1.05824089050293</v>
+        <v>1.036282539367676</v>
       </c>
     </row>
     <row r="137">
@@ -2078,13 +2250,13 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>1.05824089050293</v>
+        <v>0.25</v>
       </c>
       <c r="C137" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D137" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="138">
@@ -2092,13 +2264,13 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>1.058248805999756</v>
+        <v>0.26</v>
       </c>
       <c r="C138" t="n">
-        <v>1.058248805999756</v>
+        <v>0.07072361707687377</v>
       </c>
       <c r="D138" t="n">
-        <v>1.058248805999756</v>
+        <v>1.040574836730957</v>
       </c>
     </row>
     <row r="139">
@@ -2106,13 +2278,13 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>1.058248805999756</v>
+        <v>0.26</v>
       </c>
       <c r="C139" t="n">
-        <v>1.05824089050293</v>
+        <v>0.08110707402229309</v>
       </c>
       <c r="D139" t="n">
-        <v>1.05824089050293</v>
+        <v>1.033158016204834</v>
       </c>
     </row>
     <row r="140">
@@ -2120,13 +2292,13 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>1.058248805999756</v>
+        <v>0.26</v>
       </c>
       <c r="C140" t="n">
-        <v>1.05824089050293</v>
+        <v>0.09527781009674072</v>
       </c>
       <c r="D140" t="n">
-        <v>1.058248805999756</v>
+        <v>1.0366455078125</v>
       </c>
     </row>
     <row r="141">
@@ -2134,10 +2306,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>1.058248805999756</v>
+        <v>0.26</v>
       </c>
       <c r="C141" t="n">
-        <v>1.058248805999756</v>
+        <v>0.9658628463745117</v>
       </c>
       <c r="D141" t="n">
         <v>1.05824089050293</v>
@@ -2148,13 +2320,13 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>1.058248805999756</v>
+        <v>0.27</v>
       </c>
       <c r="C142" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D142" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="143">
@@ -2162,13 +2334,13 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>1.058248805999756</v>
+        <v>0.27</v>
       </c>
       <c r="C143" t="n">
-        <v>1.058248805999756</v>
+        <v>0.09597214460372924</v>
       </c>
       <c r="D143" t="n">
-        <v>1.058248805999756</v>
+        <v>1.038136768341064</v>
       </c>
     </row>
     <row r="144">
@@ -2176,13 +2348,13 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>1.058248805999756</v>
+        <v>0.27</v>
       </c>
       <c r="C144" t="n">
-        <v>1.05824089050293</v>
+        <v>0.1003590703010559</v>
       </c>
       <c r="D144" t="n">
-        <v>1.058248805999756</v>
+        <v>1.040077686309814</v>
       </c>
     </row>
     <row r="145">
@@ -2190,13 +2362,13 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>1.05824089050293</v>
+        <v>0.27</v>
       </c>
       <c r="C145" t="n">
-        <v>1.05824089050293</v>
+        <v>0.1088252186775207</v>
       </c>
       <c r="D145" t="n">
-        <v>1.05824089050293</v>
+        <v>1.050058746337891</v>
       </c>
     </row>
     <row r="146">
@@ -2204,13 +2376,13 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>1.05824089050293</v>
+        <v>0.27</v>
       </c>
       <c r="C146" t="n">
-        <v>1.058248805999756</v>
+        <v>0.03163574039936066</v>
       </c>
       <c r="D146" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031729888916016</v>
       </c>
     </row>
     <row r="147">
@@ -2218,13 +2390,13 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>1.058248805999756</v>
+        <v>0.27</v>
       </c>
       <c r="C147" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D147" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="148">
@@ -2232,13 +2404,13 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>1.058248805999756</v>
+        <v>0.27</v>
       </c>
       <c r="C148" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D148" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
     </row>
     <row r="149">
@@ -2246,10 +2418,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C149" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
       <c r="D149" t="n">
         <v>1.058248805999756</v>
@@ -2260,13 +2432,13 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C150" t="n">
-        <v>1.05824089050293</v>
+        <v>0.0710076630115509</v>
       </c>
       <c r="D150" t="n">
-        <v>1.058248805999756</v>
+        <v>1.038910007476807</v>
       </c>
     </row>
     <row r="151">
@@ -2274,13 +2446,13 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C151" t="n">
-        <v>1.058248805999756</v>
+        <v>0.08242473006248474</v>
       </c>
       <c r="D151" t="n">
-        <v>1.058248805999756</v>
+        <v>1.031745719909668</v>
       </c>
     </row>
     <row r="152">
@@ -2288,13 +2460,13 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>1.05824089050293</v>
+        <v>0.28</v>
       </c>
       <c r="C152" t="n">
-        <v>1.05824089050293</v>
+        <v>0.09346306920051575</v>
       </c>
       <c r="D152" t="n">
-        <v>1.05824089050293</v>
+        <v>1.036140537261963</v>
       </c>
     </row>
     <row r="153">
@@ -2302,13 +2474,13 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>1.05824089050293</v>
+        <v>0.28</v>
       </c>
       <c r="C153" t="n">
-        <v>1.05824089050293</v>
+        <v>0.09857589602470399</v>
       </c>
       <c r="D153" t="n">
-        <v>1.05824089050293</v>
+        <v>1.037213611602783</v>
       </c>
     </row>
     <row r="154">
@@ -2316,13 +2488,13 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C154" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1108608841896057</v>
       </c>
       <c r="D154" t="n">
-        <v>1.05824089050293</v>
+        <v>1.049822044372559</v>
       </c>
     </row>
     <row r="155">
@@ -2330,13 +2502,13 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C155" t="n">
-        <v>1.05824089050293</v>
+        <v>0.02028968185186386</v>
       </c>
       <c r="D155" t="n">
-        <v>1.058248805999756</v>
+        <v>1.034846496582031</v>
       </c>
     </row>
     <row r="156">
@@ -2344,13 +2516,13 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C156" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D156" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="157">
@@ -2358,10 +2530,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>1.058248805999756</v>
+        <v>0.28</v>
       </c>
       <c r="C157" t="n">
-        <v>1.058248805999756</v>
+        <v>1.05824089050293</v>
       </c>
       <c r="D157" t="n">
         <v>1.058248805999756</v>
@@ -2372,13 +2544,13 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>1.05824089050293</v>
+        <v>0.29</v>
       </c>
       <c r="C158" t="n">
-        <v>1.05824089050293</v>
+        <v>0.05627672672271729</v>
       </c>
       <c r="D158" t="n">
-        <v>1.058248805999756</v>
+        <v>1.026380348205566</v>
       </c>
     </row>
     <row r="159">
@@ -2386,13 +2558,13 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>1.058248805999756</v>
+        <v>0.29</v>
       </c>
       <c r="C159" t="n">
-        <v>1.058248805999756</v>
+        <v>0.05997720956802368</v>
       </c>
       <c r="D159" t="n">
-        <v>1.05824089050293</v>
+        <v>1.028589630126953</v>
       </c>
     </row>
     <row r="160">
@@ -2400,13 +2572,13 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>1.05824089050293</v>
+        <v>0.29</v>
       </c>
       <c r="C160" t="n">
-        <v>1.058248805999756</v>
+        <v>0.1116420149803162</v>
       </c>
       <c r="D160" t="n">
-        <v>1.058248805999756</v>
+        <v>1.048646450042725</v>
       </c>
     </row>
     <row r="161">
@@ -2414,13 +2586,13 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>1.058248805999756</v>
+        <v>0.29</v>
       </c>
       <c r="C161" t="n">
-        <v>1.05824089050293</v>
+        <v>0.09980676174163819</v>
       </c>
       <c r="D161" t="n">
-        <v>1.05824089050293</v>
+        <v>1.046973705291748</v>
       </c>
     </row>
     <row r="162">
@@ -2428,13 +2600,13 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>1.058248805999756</v>
+        <v>0.29</v>
       </c>
       <c r="C162" t="n">
-        <v>1.05824089050293</v>
+        <v>0.1049827098846436</v>
       </c>
       <c r="D162" t="n">
-        <v>1.058248805999756</v>
+        <v>1.047612857818603</v>
       </c>
     </row>
     <row r="163">
@@ -2442,13 +2614,13 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>1.058248805999756</v>
+        <v>0.29</v>
       </c>
       <c r="C163" t="n">
         <v>1.058248805999756</v>
       </c>
       <c r="D163" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="164">
@@ -2456,13 +2628,13 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>1.058248805999756</v>
+        <v>0.29</v>
       </c>
       <c r="C164" t="n">
         <v>1.058248805999756</v>
       </c>
       <c r="D164" t="n">
-        <v>1.05824089050293</v>
+        <v>1.058248805999756</v>
       </c>
     </row>
     <row r="165">
@@ -2470,13 +2642,13 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>1.058248805999756</v>
+        <v>0.3</v>
       </c>
       <c r="C165" t="n">
-        <v>1.05824089050293</v>
+        <v>0.0644903838634491</v>
       </c>
       <c r="D165" t="n">
-        <v>1.058248805999756</v>
+        <v>1.037410831451416</v>
       </c>
     </row>
     <row r="166">
@@ -2484,13 +2656,13 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>1.05824089050293</v>
+        <v>0.3</v>
       </c>
       <c r="C166" t="n">
-        <v>1.05824089050293</v>
+        <v>0.09599581360816956</v>
       </c>
       <c r="D166" t="n">
-        <v>1.05824089050293</v>
+        <v>1.0436598777771</v>
       </c>
     </row>
     <row r="167">
@@ -2498,12 +2670,5390 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>1.058248805999756</v>
+        <v>0.3</v>
       </c>
       <c r="C167" t="n">
-        <v>1.058248805999756</v>
+        <v>0.08288236260414124</v>
       </c>
       <c r="D167" t="n">
+        <v>1.033213233947754</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="1" t="n">
+        <v>166</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C168" t="n">
+        <v>0.1197373151779175</v>
+      </c>
+      <c r="D168" t="n">
+        <v>1.048962020874023</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="1" t="n">
+        <v>167</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C169" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D169" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" s="1" t="n">
+        <v>168</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C170" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D170" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" s="1" t="n">
+        <v>169</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C171" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D171" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="C172" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D172" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C173" t="n">
+        <v>0.08969946503639221</v>
+      </c>
+      <c r="D173" t="n">
+        <v>1.033891773223877</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="1" t="n">
+        <v>172</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C174" t="n">
+        <v>0.09491485953330994</v>
+      </c>
+      <c r="D174" t="n">
+        <v>1.034728145599365</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" s="1" t="n">
+        <v>173</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C175" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D175" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" s="1" t="n">
+        <v>174</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="C176" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D176" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="1" t="n">
+        <v>175</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C177" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D177" t="inlineStr"/>
+    </row>
+    <row r="178">
+      <c r="A178" s="1" t="n">
+        <v>176</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C178" t="n">
+        <v>0.07810091972351074</v>
+      </c>
+      <c r="D178" t="n">
+        <v>1.030830478668213</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C179" t="n">
+        <v>0.1075785756111145</v>
+      </c>
+      <c r="D179" t="n">
+        <v>1.047226238250732</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C180" t="n">
+        <v>0.09440988898277283</v>
+      </c>
+      <c r="D180" t="n">
+        <v>1.035256862640381</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="C181" t="n">
+        <v>0.0932105839252472</v>
+      </c>
+      <c r="D181" t="n">
+        <v>1.036724376678467</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C182" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D182" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C183" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D183" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C184" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D184" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C185" t="n">
+        <v>0.1055192470550537</v>
+      </c>
+      <c r="D185" t="n">
+        <v>1.046113681793213</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C186" t="n">
+        <v>0.08881576657295227</v>
+      </c>
+      <c r="D186" t="n">
+        <v>1.034736061096191</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C187" t="n">
+        <v>0.07305121421813965</v>
+      </c>
+      <c r="D187" t="n">
+        <v>1.032400608062744</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C188" t="n">
+        <v>0.07776164412498474</v>
+      </c>
+      <c r="D188" t="n">
+        <v>1.033339500427246</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C189" t="n">
+        <v>0.09409428238868714</v>
+      </c>
+      <c r="D189" t="n">
+        <v>1.03551721572876</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D190" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D191" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D192" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D193" t="inlineStr"/>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D194" t="inlineStr"/>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D195" t="inlineStr"/>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D196" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C197" t="n">
+        <v>0.05278927087783813</v>
+      </c>
+      <c r="D197" t="n">
+        <v>1.02726411819458</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C198" t="n">
+        <v>0.08008924126625061</v>
+      </c>
+      <c r="D198" t="n">
+        <v>1.033047580718994</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C199" t="n">
+        <v>0.08636192083358765</v>
+      </c>
+      <c r="D199" t="n">
+        <v>1.032897663116455</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C200" t="n">
+        <v>0.08439727425575257</v>
+      </c>
+      <c r="D200" t="n">
+        <v>1.031690502166748</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C201" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D201" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C202" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D202" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C203" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D203" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C204" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D204" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="C205" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D205" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C206" t="n">
+        <v>0.0482682079076767</v>
+      </c>
+      <c r="D206" t="n">
+        <v>1.028013610839844</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C207" t="n">
+        <v>0.09752650856971741</v>
+      </c>
+      <c r="D207" t="n">
+        <v>1.037387180328369</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C208" t="n">
+        <v>0.09570387601852418</v>
+      </c>
+      <c r="D208" t="n">
+        <v>1.044291019439697</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C209" t="n">
+        <v>0.1127781987190247</v>
+      </c>
+      <c r="D209" t="n">
+        <v>1.050200748443604</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C210" t="n">
+        <v>0.1029549360275269</v>
+      </c>
+      <c r="D210" t="n">
+        <v>1.048748970031738</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D211" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C212" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D212" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="C213" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D213" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C214" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D214" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C215" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D215" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C216" t="n">
+        <v>0.09604315757751465</v>
+      </c>
+      <c r="D216" t="n">
+        <v>1.040188217163086</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C217" t="n">
+        <v>0.02873215973377228</v>
+      </c>
+      <c r="D217" t="n">
+        <v>1.043502044677734</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C218" t="n">
+        <v>0.1065844178199768</v>
+      </c>
+      <c r="D218" t="n">
+        <v>1.046405601501465</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D219" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D220" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D221" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D222" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C223" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D223" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="1" t="n">
+        <v>222</v>
+      </c>
+      <c r="B224" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C224" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D224" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="1" t="n">
+        <v>223</v>
+      </c>
+      <c r="B225" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C225" t="n">
+        <v>0.08270088434219361</v>
+      </c>
+      <c r="D225" t="n">
+        <v>1.033465766906738</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="1" t="n">
+        <v>224</v>
+      </c>
+      <c r="B226" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C226" t="n">
+        <v>0.07567864060401916</v>
+      </c>
+      <c r="D226" t="n">
+        <v>1.032439994812012</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="1" t="n">
+        <v>225</v>
+      </c>
+      <c r="B227" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C227" t="n">
+        <v>0.03095718622207642</v>
+      </c>
+      <c r="D227" t="n">
+        <v>1.031998157501221</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="1" t="n">
+        <v>226</v>
+      </c>
+      <c r="B228" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C228" t="n">
+        <v>0.1068447947502136</v>
+      </c>
+      <c r="D228" t="n">
+        <v>1.046358299255371</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="1" t="n">
+        <v>227</v>
+      </c>
+      <c r="B229" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C229" t="n">
+        <v>0.1098430514335632</v>
+      </c>
+      <c r="D229" t="n">
+        <v>1.048788452148437</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="1" t="n">
+        <v>228</v>
+      </c>
+      <c r="B230" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C230" t="n">
+        <v>0.07983675599098206</v>
+      </c>
+      <c r="D230" t="n">
+        <v>1.034357357025147</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="1" t="n">
+        <v>229</v>
+      </c>
+      <c r="B231" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="C231" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D231" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="1" t="n">
+        <v>230</v>
+      </c>
+      <c r="B232" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C232" t="n">
+        <v>0.1147033929824829</v>
+      </c>
+      <c r="D232" t="n">
+        <v>1.043928146362305</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="1" t="n">
+        <v>231</v>
+      </c>
+      <c r="B233" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="C233" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D233" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="1" t="n">
+        <v>232</v>
+      </c>
+      <c r="B234" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C234" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D234" t="inlineStr"/>
+    </row>
+    <row r="235">
+      <c r="A235" s="1" t="n">
+        <v>233</v>
+      </c>
+      <c r="B235" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C235" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D235" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="1" t="n">
+        <v>234</v>
+      </c>
+      <c r="B236" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C236" t="n">
+        <v>0.1029075980186462</v>
+      </c>
+      <c r="D236" t="n">
+        <v>1.044014930725098</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="1" t="n">
+        <v>235</v>
+      </c>
+      <c r="B237" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C237" t="n">
+        <v>0.1108056545257568</v>
+      </c>
+      <c r="D237" t="n">
+        <v>1.046800136566162</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="1" t="n">
+        <v>236</v>
+      </c>
+      <c r="B238" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="C238" t="n">
+        <v>0.1048012375831604</v>
+      </c>
+      <c r="D238" t="n">
+        <v>1.04891471862793</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="1" t="n">
+        <v>237</v>
+      </c>
+      <c r="B239" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C239" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D239" t="inlineStr"/>
+    </row>
+    <row r="240">
+      <c r="A240" s="1" t="n">
+        <v>238</v>
+      </c>
+      <c r="B240" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C240" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D240" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="1" t="n">
+        <v>239</v>
+      </c>
+      <c r="B241" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C241" t="n">
+        <v>0.1091645002365112</v>
+      </c>
+      <c r="D241" t="n">
+        <v>1.049017238616943</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="1" t="n">
+        <v>240</v>
+      </c>
+      <c r="B242" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C242" t="n">
+        <v>0.08046796917915344</v>
+      </c>
+      <c r="D242" t="n">
+        <v>1.033939170837402</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="1" t="n">
+        <v>241</v>
+      </c>
+      <c r="B243" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C243" t="n">
+        <v>0.0904332458972931</v>
+      </c>
+      <c r="D243" t="n">
+        <v>1.036968994140625</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="1" t="n">
+        <v>242</v>
+      </c>
+      <c r="B244" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C244" t="n">
+        <v>0.07970262169837952</v>
+      </c>
+      <c r="D244" t="n">
+        <v>1.039493846893311</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="1" t="n">
+        <v>243</v>
+      </c>
+      <c r="B245" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C245" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D245" t="inlineStr"/>
+    </row>
+    <row r="246">
+      <c r="A246" s="1" t="n">
+        <v>244</v>
+      </c>
+      <c r="B246" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C246" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D246" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="1" t="n">
+        <v>245</v>
+      </c>
+      <c r="B247" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C247" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D247" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="1" t="n">
+        <v>246</v>
+      </c>
+      <c r="B248" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C248" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D248" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="1" t="n">
+        <v>247</v>
+      </c>
+      <c r="B249" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C249" t="n">
+        <v>0.1009192824363709</v>
+      </c>
+      <c r="D249" t="n">
+        <v>1.047920513153076</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" s="1" t="n">
+        <v>248</v>
+      </c>
+      <c r="B250" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C250" t="n">
+        <v>0.1029628276824951</v>
+      </c>
+      <c r="D250" t="n">
+        <v>1.047163105010986</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" s="1" t="n">
+        <v>249</v>
+      </c>
+      <c r="B251" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C251" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D251" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="1" t="n">
+        <v>250</v>
+      </c>
+      <c r="B252" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="C252" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D252" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="1" t="n">
+        <v>251</v>
+      </c>
+      <c r="B253" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="C253" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D253" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="1" t="n">
+        <v>252</v>
+      </c>
+      <c r="B254" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C254" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D254" t="inlineStr"/>
+    </row>
+    <row r="255">
+      <c r="A255" s="1" t="n">
+        <v>253</v>
+      </c>
+      <c r="B255" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C255" t="n">
+        <v>0.08843703866004944</v>
+      </c>
+      <c r="D255" t="n">
+        <v>1.033520984649658</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" s="1" t="n">
+        <v>254</v>
+      </c>
+      <c r="B256" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.1149243235588074</v>
+      </c>
+      <c r="D256" t="n">
+        <v>1.044851303100586</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="1" t="n">
+        <v>255</v>
+      </c>
+      <c r="B257" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="C257" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D257" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="1" t="n">
+        <v>256</v>
+      </c>
+      <c r="B258" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C258" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D258" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="1" t="n">
+        <v>257</v>
+      </c>
+      <c r="B259" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.1027971386909485</v>
+      </c>
+      <c r="D259" t="n">
+        <v>1.047699642181396</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="1" t="n">
+        <v>258</v>
+      </c>
+      <c r="B260" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C260" t="n">
+        <v>0.06696789860725402</v>
+      </c>
+      <c r="D260" t="n">
+        <v>1.03322114944458</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="1" t="n">
+        <v>259</v>
+      </c>
+      <c r="B261" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C261" t="n">
+        <v>0.1152478218078613</v>
+      </c>
+      <c r="D261" t="n">
+        <v>1.044385719299316</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="1" t="n">
+        <v>260</v>
+      </c>
+      <c r="B262" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C262" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D262" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="1" t="n">
+        <v>261</v>
+      </c>
+      <c r="B263" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C263" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D263" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="1" t="n">
+        <v>262</v>
+      </c>
+      <c r="B264" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="C264" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D264" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="1" t="n">
+        <v>263</v>
+      </c>
+      <c r="B265" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C265" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D265" t="inlineStr"/>
+    </row>
+    <row r="266">
+      <c r="A266" s="1" t="n">
+        <v>264</v>
+      </c>
+      <c r="B266" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C266" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D266" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="1" t="n">
+        <v>265</v>
+      </c>
+      <c r="B267" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C267" t="n">
+        <v>0.1138749241828918</v>
+      </c>
+      <c r="D267" t="n">
+        <v>1.047541809082031</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="1" t="n">
+        <v>266</v>
+      </c>
+      <c r="B268" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C268" t="n">
+        <v>0.1063082575798035</v>
+      </c>
+      <c r="D268" t="n">
+        <v>1.042365837097168</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="1" t="n">
+        <v>267</v>
+      </c>
+      <c r="B269" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C269" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D269" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="1" t="n">
+        <v>268</v>
+      </c>
+      <c r="B270" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="C270" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D270" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="1" t="n">
+        <v>269</v>
+      </c>
+      <c r="B271" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C271" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D271" t="inlineStr"/>
+    </row>
+    <row r="272">
+      <c r="A272" s="1" t="n">
+        <v>270</v>
+      </c>
+      <c r="B272" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C272" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D272" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="1" t="n">
+        <v>271</v>
+      </c>
+      <c r="B273" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C273" t="n">
+        <v>0.1340027332305908</v>
+      </c>
+      <c r="D273" t="n">
+        <v>1.057751655578613</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="1" t="n">
+        <v>272</v>
+      </c>
+      <c r="B274" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C274" t="n">
+        <v>0.05751547813415527</v>
+      </c>
+      <c r="D274" t="n">
+        <v>1.025307273864746</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="1" t="n">
+        <v>273</v>
+      </c>
+      <c r="B275" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C275" t="n">
+        <v>0.1022921681404114</v>
+      </c>
+      <c r="D275" t="n">
+        <v>1.045758628845215</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="1" t="n">
+        <v>274</v>
+      </c>
+      <c r="B276" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C276" t="n">
+        <v>0.1050379395484924</v>
+      </c>
+      <c r="D276" t="n">
+        <v>1.04826774597168</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="1" t="n">
+        <v>275</v>
+      </c>
+      <c r="B277" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C277" t="n">
+        <v>0.1044461846351624</v>
+      </c>
+      <c r="D277" t="n">
+        <v>1.041663646697998</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="1" t="n">
+        <v>276</v>
+      </c>
+      <c r="B278" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C278" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D278" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="1" t="n">
+        <v>277</v>
+      </c>
+      <c r="B279" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C279" t="n">
+        <v>0.09316324591636657</v>
+      </c>
+      <c r="D279" t="n">
+        <v>1.0389967918396</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="1" t="n">
+        <v>278</v>
+      </c>
+      <c r="B280" t="n">
+        <v>0.47</v>
+      </c>
+      <c r="C280" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D280" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="1" t="n">
+        <v>279</v>
+      </c>
+      <c r="B281" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C281" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D281" t="inlineStr"/>
+    </row>
+    <row r="282">
+      <c r="A282" s="1" t="n">
+        <v>280</v>
+      </c>
+      <c r="B282" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C282" t="n">
+        <v>0.08206178545951844</v>
+      </c>
+      <c r="D282" t="n">
+        <v>1.036187839508057</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="1" t="n">
+        <v>281</v>
+      </c>
+      <c r="B283" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C283" t="n">
+        <v>0.1116262316703796</v>
+      </c>
+      <c r="D283" t="n">
+        <v>1.049293422698975</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="1" t="n">
+        <v>282</v>
+      </c>
+      <c r="B284" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C284" t="n">
+        <v>0.1011638760566711</v>
+      </c>
+      <c r="D284" t="n">
+        <v>1.046744918823242</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="1" t="n">
+        <v>283</v>
+      </c>
+      <c r="B285" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C285" t="n">
+        <v>0.1184670090675354</v>
+      </c>
+      <c r="D285" t="n">
+        <v>1.04721040725708</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="1" t="n">
+        <v>284</v>
+      </c>
+      <c r="B286" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="C286" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D286" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="1" t="n">
+        <v>285</v>
+      </c>
+      <c r="B287" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C287" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D287" t="inlineStr"/>
+    </row>
+    <row r="288">
+      <c r="A288" s="1" t="n">
+        <v>286</v>
+      </c>
+      <c r="B288" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C288" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D288" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="1" t="n">
+        <v>287</v>
+      </c>
+      <c r="B289" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C289" t="n">
+        <v>0.09407061338424683</v>
+      </c>
+      <c r="D289" t="n">
+        <v>1.035390949249268</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" s="1" t="n">
+        <v>288</v>
+      </c>
+      <c r="B290" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="C290" t="n">
+        <v>0.1050931692123413</v>
+      </c>
+      <c r="D290" t="n">
+        <v>1.040724658966064</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" s="1" t="n">
+        <v>289</v>
+      </c>
+      <c r="B291" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C291" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D291" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="1" t="n">
+        <v>290</v>
+      </c>
+      <c r="B292" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="C292" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D292" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="1" t="n">
+        <v>291</v>
+      </c>
+      <c r="B293" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C293" t="n">
+        <v>0.1880582571029663</v>
+      </c>
+      <c r="D293" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="1" t="n">
+        <v>292</v>
+      </c>
+      <c r="B294" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C294" t="n">
+        <v>0.09073307514190673</v>
+      </c>
+      <c r="D294" t="n">
+        <v>1.03965950012207</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" s="1" t="n">
+        <v>293</v>
+      </c>
+      <c r="B295" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C295" t="n">
+        <v>0.07881892323493958</v>
+      </c>
+      <c r="D295" t="n">
+        <v>1.04195556640625</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" s="1" t="n">
+        <v>294</v>
+      </c>
+      <c r="B296" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C296" t="n">
+        <v>0.07775375247001648</v>
+      </c>
+      <c r="D296" t="n">
+        <v>1.038278770446777</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="1" t="n">
+        <v>295</v>
+      </c>
+      <c r="B297" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C297" t="n">
+        <v>0.1085569620132446</v>
+      </c>
+      <c r="D297" t="n">
+        <v>1.048622798919678</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="1" t="n">
+        <v>296</v>
+      </c>
+      <c r="B298" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C298" t="n">
+        <v>0.09124593734741211</v>
+      </c>
+      <c r="D298" t="n">
+        <v>1.042365837097168</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="1" t="n">
+        <v>297</v>
+      </c>
+      <c r="B299" t="n">
+        <v>0.51</v>
+      </c>
+      <c r="C299" t="n">
+        <v>0.09739237427711486</v>
+      </c>
+      <c r="D299" t="n">
+        <v>1.036101055145264</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" s="1" t="n">
+        <v>298</v>
+      </c>
+      <c r="B300" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C300" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D300" t="inlineStr"/>
+    </row>
+    <row r="301">
+      <c r="A301" s="1" t="n">
+        <v>299</v>
+      </c>
+      <c r="B301" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C301" t="n">
+        <v>0.09081986546516418</v>
+      </c>
+      <c r="D301" t="n">
+        <v>1.040906143188477</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="1" t="n">
+        <v>300</v>
+      </c>
+      <c r="B302" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C302" t="n">
+        <v>0.09847332835197449</v>
+      </c>
+      <c r="D302" t="n">
+        <v>1.039138793945312</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="1" t="n">
+        <v>301</v>
+      </c>
+      <c r="B303" t="n">
+        <v>0.52</v>
+      </c>
+      <c r="C303" t="n">
+        <v>0.09265038371086121</v>
+      </c>
+      <c r="D303" t="n">
+        <v>1.042365837097168</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="1" t="n">
+        <v>302</v>
+      </c>
+      <c r="B304" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C304" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D304" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" s="1" t="n">
+        <v>303</v>
+      </c>
+      <c r="B305" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C305" t="n">
+        <v>0.09999612569808961</v>
+      </c>
+      <c r="D305" t="n">
+        <v>1.03840503692627</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" s="1" t="n">
+        <v>304</v>
+      </c>
+      <c r="B306" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C306" t="n">
+        <v>0.09291076064109802</v>
+      </c>
+      <c r="D306" t="n">
+        <v>1.044164848327637</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="1" t="n">
+        <v>305</v>
+      </c>
+      <c r="B307" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C307" t="n">
+        <v>0.08187242150306702</v>
+      </c>
+      <c r="D307" t="n">
+        <v>1.031856155395508</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="1" t="n">
+        <v>306</v>
+      </c>
+      <c r="B308" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="C308" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D308" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="1" t="n">
+        <v>307</v>
+      </c>
+      <c r="B309" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C309" t="n">
+        <v>0.1039885520935059</v>
+      </c>
+      <c r="D309" t="n">
+        <v>1.039162445068359</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" s="1" t="n">
+        <v>308</v>
+      </c>
+      <c r="B310" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C310" t="n">
+        <v>0.1126046061515808</v>
+      </c>
+      <c r="D310" t="n">
+        <v>1.045348358154297</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" s="1" t="n">
+        <v>309</v>
+      </c>
+      <c r="B311" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="C311" t="n">
+        <v>0.1035230278968811</v>
+      </c>
+      <c r="D311" t="n">
+        <v>1.047131538391113</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="1" t="n">
+        <v>310</v>
+      </c>
+      <c r="B312" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C312" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D312" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="1" t="n">
+        <v>311</v>
+      </c>
+      <c r="B313" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C313" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D313" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="1" t="n">
+        <v>312</v>
+      </c>
+      <c r="B314" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C314" t="n">
+        <v>0.1028760433197022</v>
+      </c>
+      <c r="D314" t="n">
+        <v>1.0389573097229</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" s="1" t="n">
+        <v>313</v>
+      </c>
+      <c r="B315" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C315" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D315" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" s="1" t="n">
+        <v>314</v>
+      </c>
+      <c r="B316" t="n">
+        <v>0.55</v>
+      </c>
+      <c r="C316" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D316" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="1" t="n">
+        <v>315</v>
+      </c>
+      <c r="B317" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C317" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D317" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="1" t="n">
+        <v>316</v>
+      </c>
+      <c r="B318" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C318" t="n">
+        <v>0.08840547800064087</v>
+      </c>
+      <c r="D318" t="n">
+        <v>1.037466049194336</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="1" t="n">
+        <v>317</v>
+      </c>
+      <c r="B319" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C319" t="n">
+        <v>0.1064818382263184</v>
+      </c>
+      <c r="D319" t="n">
+        <v>1.046997356414795</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" s="1" t="n">
+        <v>318</v>
+      </c>
+      <c r="B320" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C320" t="n">
+        <v>0.1087463259696961</v>
+      </c>
+      <c r="D320" t="n">
+        <v>1.044835472106934</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" s="1" t="n">
+        <v>319</v>
+      </c>
+      <c r="B321" t="n">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="C321" t="n">
+        <v>0.1151373505592346</v>
+      </c>
+      <c r="D321" t="n">
+        <v>1.044038581848145</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="1" t="n">
+        <v>320</v>
+      </c>
+      <c r="B322" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C322" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D322" t="inlineStr"/>
+    </row>
+    <row r="323">
+      <c r="A323" s="1" t="n">
+        <v>321</v>
+      </c>
+      <c r="B323" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C323" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D323" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="1" t="n">
+        <v>322</v>
+      </c>
+      <c r="B324" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C324" t="n">
+        <v>0.01173674315214157</v>
+      </c>
+      <c r="D324" t="n">
+        <v>1.033071231842041</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" s="1" t="n">
+        <v>323</v>
+      </c>
+      <c r="B325" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C325" t="n">
+        <v>0.07896884083747864</v>
+      </c>
+      <c r="D325" t="n">
+        <v>1.030940914154053</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" s="1" t="n">
+        <v>324</v>
+      </c>
+      <c r="B326" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C326" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D326" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="1" t="n">
+        <v>325</v>
+      </c>
+      <c r="B327" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="C327" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D327" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="1" t="n">
+        <v>326</v>
+      </c>
+      <c r="B328" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C328" t="n">
+        <v>0.09317113757133484</v>
+      </c>
+      <c r="D328" t="n">
+        <v>1.043068122863769</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="1" t="n">
+        <v>327</v>
+      </c>
+      <c r="B329" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C329" t="n">
+        <v>0.03010504841804505</v>
+      </c>
+      <c r="D329" t="n">
+        <v>1.036732292175293</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" s="1" t="n">
+        <v>328</v>
+      </c>
+      <c r="B330" t="n">
+        <v>0.58</v>
+      </c>
+      <c r="C330" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D330" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" s="1" t="n">
+        <v>329</v>
+      </c>
+      <c r="B331" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C331" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D331" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="1" t="n">
+        <v>330</v>
+      </c>
+      <c r="B332" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C332" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D332" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="1" t="n">
+        <v>331</v>
+      </c>
+      <c r="B333" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C333" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D333" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="1" t="n">
+        <v>332</v>
+      </c>
+      <c r="B334" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C334" t="n">
+        <v>0.07829817533493041</v>
+      </c>
+      <c r="D334" t="n">
+        <v>1.03209285736084</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" s="1" t="n">
+        <v>333</v>
+      </c>
+      <c r="B335" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C335" t="n">
+        <v>0.07547349333763123</v>
+      </c>
+      <c r="D335" t="n">
+        <v>1.03788423538208</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C336" t="n">
+        <v>0.08704047799110412</v>
+      </c>
+      <c r="D336" t="n">
+        <v>1.035509300231934</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>0.59</v>
+      </c>
+      <c r="C337" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D337" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C338" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D338" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C339" t="n">
+        <v>0.06787526607513428</v>
+      </c>
+      <c r="D339" t="n">
+        <v>1.039272880554199</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C340" t="n">
+        <v>0.08633036017417908</v>
+      </c>
+      <c r="D340" t="n">
+        <v>1.035580348968506</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C341" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D341" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="C342" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D342" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C343" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D343" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="C344" t="n">
+        <v>0.1019686698913574</v>
+      </c>
+      <c r="D344" t="n">
+        <v>1.044369983673096</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C345" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D345" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C346" t="n">
+        <v>0.04568023383617401</v>
+      </c>
+      <c r="D346" t="n">
+        <v>1.030451679229736</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C347" t="n">
+        <v>0.08187242150306702</v>
+      </c>
+      <c r="D347" t="n">
+        <v>1.041182327270508</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C348" t="n">
+        <v>0.07071572542190552</v>
+      </c>
+      <c r="D348" t="n">
+        <v>1.033426284790039</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C349" t="n">
+        <v>0.09829185009002686</v>
+      </c>
+      <c r="D349" t="n">
+        <v>1.036787509918213</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C350" t="n">
+        <v>0.1083202481269836</v>
+      </c>
+      <c r="D350" t="n">
+        <v>1.049190807342529</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C351" t="n">
+        <v>0.1049984931945801</v>
+      </c>
+      <c r="D351" t="n">
+        <v>1.04904088973999</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C352" t="n">
+        <v>0.1708340287208557</v>
+      </c>
+      <c r="D352" t="n">
+        <v>1.032716178894043</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C353" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D353" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="C354" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D354" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C355" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D355" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C356" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D356" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C357" t="n">
+        <v>0.05368086099624634</v>
+      </c>
+      <c r="D357" t="n">
+        <v>1.032929229736328</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C358" t="n">
+        <v>0.08543877601623535</v>
+      </c>
+      <c r="D358" t="n">
+        <v>1.038152503967285</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C359" t="n">
+        <v>0.09229532480239869</v>
+      </c>
+      <c r="D359" t="n">
+        <v>1.038089370727539</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C360" t="n">
+        <v>0.05129802823066711</v>
+      </c>
+      <c r="D360" t="n">
+        <v>1.028597545623779</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C361" t="n">
+        <v>0.1132437109947205</v>
+      </c>
+      <c r="D361" t="n">
+        <v>1.046776485443115</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C362" t="n">
+        <v>0.08652761578559875</v>
+      </c>
+      <c r="D362" t="n">
+        <v>1.041923999786377</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C363" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D363" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="C364" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D364" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C365" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C366" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D366" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>0.64</v>
+      </c>
+      <c r="C367" t="n">
+        <v>0.01375662535429001</v>
+      </c>
+      <c r="D367" t="n">
+        <v>1.031217098236084</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C368" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D368" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C369" t="n">
+        <v>0.07236477136611938</v>
+      </c>
+      <c r="D369" t="n">
+        <v>1.038333988189697</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.005985471978783607</v>
+      </c>
+      <c r="D370" t="n">
+        <v>1.029110336303711</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.09078041315078736</v>
+      </c>
+      <c r="D371" t="n">
+        <v>1.042255401611328</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.1009034991264343</v>
+      </c>
+      <c r="D372" t="n">
+        <v>1.040551090240478</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.1031600832939148</v>
+      </c>
+      <c r="D373" t="n">
+        <v>1.048173046112061</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.1046197652816772</v>
+      </c>
+      <c r="D374" t="n">
+        <v>1.039265060424805</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.65</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.1153661727905273</v>
+      </c>
+      <c r="D375" t="n">
+        <v>1.043951797485352</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C376" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C377" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D377" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.05676591396331787</v>
+      </c>
+      <c r="D378" t="n">
+        <v>1.04485912322998</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.1005957841873169</v>
+      </c>
+      <c r="D379" t="n">
+        <v>1.038436508178711</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" s="1" t="n">
+        <v>378</v>
+      </c>
+      <c r="B380" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C380" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D380" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" s="1" t="n">
+        <v>379</v>
+      </c>
+      <c r="B381" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="C381" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D381" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C382" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D382" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="1" t="n">
+        <v>381</v>
+      </c>
+      <c r="B383" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="C383" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D383" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="1" t="n">
+        <v>382</v>
+      </c>
+      <c r="B384" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C384" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D384" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" s="1" t="n">
+        <v>383</v>
+      </c>
+      <c r="B385" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C385" t="n">
+        <v>0.09366032481193542</v>
+      </c>
+      <c r="D385" t="n">
+        <v>1.044172668457031</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" s="1" t="n">
+        <v>384</v>
+      </c>
+      <c r="B386" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C386" t="n">
+        <v>0.1085648417472839</v>
+      </c>
+      <c r="D386" t="n">
+        <v>1.045300960540771</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="1" t="n">
+        <v>385</v>
+      </c>
+      <c r="B387" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C387" t="n">
+        <v>0.08913137316703797</v>
+      </c>
+      <c r="D387" t="n">
+        <v>1.035548782348633</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="1" t="n">
+        <v>386</v>
+      </c>
+      <c r="B388" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C388" t="n">
+        <v>0.1050379395484924</v>
+      </c>
+      <c r="D388" t="n">
+        <v>1.046776485443115</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="1" t="n">
+        <v>387</v>
+      </c>
+      <c r="B389" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C389" t="n">
+        <v>0.08314273357391358</v>
+      </c>
+      <c r="D389" t="n">
+        <v>1.033599853515625</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" s="1" t="n">
+        <v>388</v>
+      </c>
+      <c r="B390" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C390" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D390" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" s="1" t="n">
+        <v>389</v>
+      </c>
+      <c r="B391" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="C391" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D391" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="1" t="n">
+        <v>390</v>
+      </c>
+      <c r="B392" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C392" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" s="1" t="n">
+        <v>391</v>
+      </c>
+      <c r="B393" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C393" t="n">
+        <v>0.07451089620590209</v>
+      </c>
+      <c r="D393" t="n">
+        <v>1.039951419830322</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="1" t="n">
+        <v>392</v>
+      </c>
+      <c r="B394" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C394" t="n">
+        <v>0.1112475037574768</v>
+      </c>
+      <c r="D394" t="n">
+        <v>1.049159336090088</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" s="1" t="n">
+        <v>393</v>
+      </c>
+      <c r="B395" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C395" t="n">
+        <v>0.03908405601978302</v>
+      </c>
+      <c r="D395" t="n">
+        <v>1.035390949249268</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" s="1" t="n">
+        <v>394</v>
+      </c>
+      <c r="B396" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C396" t="n">
+        <v>0.09741604328155518</v>
+      </c>
+      <c r="D396" t="n">
+        <v>1.036566543579102</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="1" t="n">
+        <v>395</v>
+      </c>
+      <c r="B397" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="C397" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D397" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="1" t="n">
+        <v>396</v>
+      </c>
+      <c r="B398" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C398" t="n">
+        <v>0.05009872317314148</v>
+      </c>
+      <c r="D398" t="n">
+        <v>1.028550148010254</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="1" t="n">
+        <v>397</v>
+      </c>
+      <c r="B399" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C399" t="n">
+        <v>0.07653077840805053</v>
+      </c>
+      <c r="D399" t="n">
+        <v>1.032392692565918</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" s="1" t="n">
+        <v>398</v>
+      </c>
+      <c r="B400" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="C400" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D400" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" s="1" t="n">
+        <v>399</v>
+      </c>
+      <c r="B401" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C401" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" s="1" t="n">
+        <v>400</v>
+      </c>
+      <c r="B402" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C402" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D402" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="1" t="n">
+        <v>401</v>
+      </c>
+      <c r="B403" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C403" t="n">
+        <v>0.1013295650482178</v>
+      </c>
+      <c r="D403" t="n">
+        <v>1.043225860595703</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="1" t="n">
+        <v>402</v>
+      </c>
+      <c r="B404" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C404" t="n">
+        <v>0.1106715202331543</v>
+      </c>
+      <c r="D404" t="n">
+        <v>1.050145530700684</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" s="1" t="n">
+        <v>403</v>
+      </c>
+      <c r="B405" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C405" t="n">
+        <v>0.1048959255218506</v>
+      </c>
+      <c r="D405" t="n">
+        <v>1.046263599395752</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" s="1" t="n">
+        <v>404</v>
+      </c>
+      <c r="B406" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C406" t="n">
+        <v>0.09270561337471009</v>
+      </c>
+      <c r="D406" t="n">
+        <v>1.044093799591064</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="1" t="n">
+        <v>405</v>
+      </c>
+      <c r="B407" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="C407" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D407" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="1" t="n">
+        <v>406</v>
+      </c>
+      <c r="B408" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C408" t="n">
+        <v>0.1042173624038696</v>
+      </c>
+      <c r="D408" t="n">
+        <v>1.048764801025391</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="1" t="n">
+        <v>407</v>
+      </c>
+      <c r="B409" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C409" t="n">
+        <v>0.1140958547592163</v>
+      </c>
+      <c r="D409" t="n">
+        <v>1.045222091674805</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" s="1" t="n">
+        <v>408</v>
+      </c>
+      <c r="B410" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C410" t="n">
+        <v>0.1028286933898926</v>
+      </c>
+      <c r="D410" t="n">
+        <v>1.038184070587158</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" s="1" t="n">
+        <v>409</v>
+      </c>
+      <c r="B411" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C411" t="n">
+        <v>0.1190824389457703</v>
+      </c>
+      <c r="D411" t="n">
+        <v>1.046500301361084</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="1" t="n">
+        <v>410</v>
+      </c>
+      <c r="B412" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C412" t="n">
+        <v>0.1078862905502319</v>
+      </c>
+      <c r="D412" t="n">
+        <v>1.049901008605957</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="1" t="n">
+        <v>411</v>
+      </c>
+      <c r="B413" t="n">
+        <v>0.72</v>
+      </c>
+      <c r="C413" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D413" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="1" t="n">
+        <v>412</v>
+      </c>
+      <c r="B414" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="C414" t="n">
+        <v>0.1191613435745239</v>
+      </c>
+      <c r="D414" t="n">
+        <v>1.047944164276123</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>413</v>
+      </c>
+      <c r="B415" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C415" t="n">
+        <v>0.09565653800964355</v>
+      </c>
+      <c r="D415" t="n">
+        <v>1.043391609191894</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
+        <v>414</v>
+      </c>
+      <c r="B416" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C416" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D416" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="1" t="n">
+        <v>415</v>
+      </c>
+      <c r="B417" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="C417" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D417" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="1" t="n">
+        <v>416</v>
+      </c>
+      <c r="B418" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C418" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D418" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="1" t="n">
+        <v>417</v>
+      </c>
+      <c r="B419" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C419" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D419" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" s="1" t="n">
+        <v>418</v>
+      </c>
+      <c r="B420" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C420" t="n">
+        <v>0.05397279858589173</v>
+      </c>
+      <c r="D420" t="n">
+        <v>1.027666473388672</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" s="1" t="n">
+        <v>419</v>
+      </c>
+      <c r="B421" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C421" t="n">
+        <v>0.1028208017349243</v>
+      </c>
+      <c r="D421" t="n">
+        <v>1.044795989990234</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="1" t="n">
+        <v>420</v>
+      </c>
+      <c r="B422" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="C422" t="n">
+        <v>0.09251624941825867</v>
+      </c>
+      <c r="D422" t="n">
+        <v>1.044188499450684</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="1" t="n">
+        <v>421</v>
+      </c>
+      <c r="B423" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C423" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D423" t="inlineStr"/>
+    </row>
+    <row r="424">
+      <c r="A424" s="1" t="n">
+        <v>422</v>
+      </c>
+      <c r="B424" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C424" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D424" t="inlineStr"/>
+    </row>
+    <row r="425">
+      <c r="A425" s="1" t="n">
+        <v>423</v>
+      </c>
+      <c r="B425" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C425" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D425" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" s="1" t="n">
+        <v>424</v>
+      </c>
+      <c r="B426" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C426" t="n">
+        <v>0.02726458907127381</v>
+      </c>
+      <c r="D426" t="n">
+        <v>1.037671184539795</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="1" t="n">
+        <v>425</v>
+      </c>
+      <c r="B427" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C427" t="n">
+        <v>0.07937123775482177</v>
+      </c>
+      <c r="D427" t="n">
+        <v>1.031619453430176</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="1" t="n">
+        <v>426</v>
+      </c>
+      <c r="B428" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C428" t="n">
+        <v>0.06078200936317444</v>
+      </c>
+      <c r="D428" t="n">
+        <v>1.030570030212402</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" s="1" t="n">
+        <v>427</v>
+      </c>
+      <c r="B429" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C429" t="n">
+        <v>0.1123836874961853</v>
+      </c>
+      <c r="D429" t="n">
+        <v>1.046239948272705</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" s="1" t="n">
+        <v>428</v>
+      </c>
+      <c r="B430" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C430" t="n">
+        <v>0.1133305072784424</v>
+      </c>
+      <c r="D430" t="n">
+        <v>1.049940395355225</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" s="1" t="n">
+        <v>429</v>
+      </c>
+      <c r="B431" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C431" t="n">
+        <v>0.0854545533657074</v>
+      </c>
+      <c r="D431" t="n">
+        <v>1.031982421875</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="1" t="n">
+        <v>430</v>
+      </c>
+      <c r="B432" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C432" t="n">
+        <v>0.09693474173545838</v>
+      </c>
+      <c r="D432" t="n">
+        <v>1.046468734741211</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="1" t="n">
+        <v>431</v>
+      </c>
+      <c r="B433" t="n">
+        <v>0.76</v>
+      </c>
+      <c r="C433" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D433" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" s="1" t="n">
+        <v>432</v>
+      </c>
+      <c r="B434" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C434" t="n">
+        <v>0.1016057252883911</v>
+      </c>
+      <c r="D434" t="n">
+        <v>1.044275283813477</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="1" t="n">
+        <v>433</v>
+      </c>
+      <c r="B435" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C435" t="n">
+        <v>0.06145267486572266</v>
+      </c>
+      <c r="D435" t="n">
+        <v>1.030609512329101</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" s="1" t="n">
+        <v>434</v>
+      </c>
+      <c r="B436" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C436" t="n">
+        <v>0.1060242176055908</v>
+      </c>
+      <c r="D436" t="n">
+        <v>1.047447109222412</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" s="1" t="n">
+        <v>435</v>
+      </c>
+      <c r="B437" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C437" t="n">
+        <v>0.08955743908882141</v>
+      </c>
+      <c r="D437" t="n">
+        <v>1.034878063201904</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="1" t="n">
+        <v>436</v>
+      </c>
+      <c r="B438" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C438" t="n">
+        <v>0.08004978895187378</v>
+      </c>
+      <c r="D438" t="n">
+        <v>1.038412857055664</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" s="1" t="n">
+        <v>437</v>
+      </c>
+      <c r="B439" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C439" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D439" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" s="1" t="n">
+        <v>438</v>
+      </c>
+      <c r="B440" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C440" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D440" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" s="1" t="n">
+        <v>439</v>
+      </c>
+      <c r="B441" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="C441" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D441" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" s="1" t="n">
+        <v>440</v>
+      </c>
+      <c r="B442" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C442" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D442" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="1" t="n">
+        <v>441</v>
+      </c>
+      <c r="B443" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C443" t="n">
+        <v>0.07969473600387574</v>
+      </c>
+      <c r="D443" t="n">
+        <v>1.033402633666992</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" s="1" t="n">
+        <v>442</v>
+      </c>
+      <c r="B444" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C444" t="n">
+        <v>0.1079099655151367</v>
+      </c>
+      <c r="D444" t="n">
+        <v>1.048251914978027</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="1" t="n">
+        <v>443</v>
+      </c>
+      <c r="B445" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C445" t="n">
+        <v>0.09839442372322083</v>
+      </c>
+      <c r="D445" t="n">
+        <v>1.046500301361084</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="1" t="n">
+        <v>444</v>
+      </c>
+      <c r="B446" t="n">
+        <v>0.78</v>
+      </c>
+      <c r="C446" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D446" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" s="1" t="n">
+        <v>445</v>
+      </c>
+      <c r="B447" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C447" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D447" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" s="1" t="n">
+        <v>446</v>
+      </c>
+      <c r="B448" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C448" t="n">
+        <v>0.1040437817573547</v>
+      </c>
+      <c r="D448" t="n">
+        <v>1.045561408996582</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" s="1" t="n">
+        <v>447</v>
+      </c>
+      <c r="B449" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C449" t="n">
+        <v>0.1096379041671753</v>
+      </c>
+      <c r="D449" t="n">
+        <v>1.048149394989014</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" s="1" t="n">
+        <v>448</v>
+      </c>
+      <c r="B450" t="n">
+        <v>0.79</v>
+      </c>
+      <c r="C450" t="n">
+        <v>0.08412111401557923</v>
+      </c>
+      <c r="D450" t="n">
+        <v>1.040448570251465</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="1" t="n">
+        <v>449</v>
+      </c>
+      <c r="B451" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C451" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D451" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" s="1" t="n">
+        <v>450</v>
+      </c>
+      <c r="B452" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C452" t="n">
+        <v>0.05532990694046021</v>
+      </c>
+      <c r="D452" t="n">
+        <v>1.033315849304199</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" s="1" t="n">
+        <v>451</v>
+      </c>
+      <c r="B453" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C453" t="n">
+        <v>0.07707520127296448</v>
+      </c>
+      <c r="D453" t="n">
+        <v>1.033300018310547</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" s="1" t="n">
+        <v>452</v>
+      </c>
+      <c r="B454" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C454" t="n">
+        <v>0.09601948261260987</v>
+      </c>
+      <c r="D454" t="n">
+        <v>1.038357639312744</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="1" t="n">
+        <v>453</v>
+      </c>
+      <c r="B455" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C455" t="n">
+        <v>0.08696157336235047</v>
+      </c>
+      <c r="D455" t="n">
+        <v>1.033355331420899</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="1" t="n">
+        <v>454</v>
+      </c>
+      <c r="B456" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="C456" t="n">
+        <v>0.1003748536109924</v>
+      </c>
+      <c r="D456" t="n">
+        <v>1.037040042877197</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="1" t="n">
+        <v>455</v>
+      </c>
+      <c r="B457" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C457" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D457" t="inlineStr"/>
+    </row>
+    <row r="458">
+      <c r="A458" s="1" t="n">
+        <v>456</v>
+      </c>
+      <c r="B458" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C458" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D458" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="1" t="n">
+        <v>457</v>
+      </c>
+      <c r="B459" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C459" t="n">
+        <v>0.05024074912071228</v>
+      </c>
+      <c r="D459" t="n">
+        <v>1.036456108093262</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="1" t="n">
+        <v>458</v>
+      </c>
+      <c r="B460" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C460" t="n">
+        <v>0.09009397029876709</v>
+      </c>
+      <c r="D460" t="n">
+        <v>1.045198440551758</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="1" t="n">
+        <v>459</v>
+      </c>
+      <c r="B461" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C461" t="n">
+        <v>0.09785000085830689</v>
+      </c>
+      <c r="D461" t="n">
+        <v>1.045277309417725</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="1" t="n">
+        <v>460</v>
+      </c>
+      <c r="B462" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C462" t="n">
+        <v>0.0952620267868042</v>
+      </c>
+      <c r="D462" t="n">
+        <v>1.046263599395752</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="1" t="n">
+        <v>461</v>
+      </c>
+      <c r="B463" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="C463" t="n">
+        <v>0.08954954743385315</v>
+      </c>
+      <c r="D463" t="n">
+        <v>1.041663646697998</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="1" t="n">
+        <v>462</v>
+      </c>
+      <c r="B464" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C464" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D464" t="inlineStr"/>
+    </row>
+    <row r="465">
+      <c r="A465" s="1" t="n">
+        <v>463</v>
+      </c>
+      <c r="B465" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C465" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D465" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="1" t="n">
+        <v>464</v>
+      </c>
+      <c r="B466" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C466" t="n">
+        <v>0.07604158520698548</v>
+      </c>
+      <c r="D466" t="n">
+        <v>1.038057804107666</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="1" t="n">
+        <v>465</v>
+      </c>
+      <c r="B467" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="C467" t="n">
+        <v>0.1033021092414856</v>
+      </c>
+      <c r="D467" t="n">
+        <v>1.04844913482666</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" s="1" t="n">
+        <v>466</v>
+      </c>
+      <c r="B468" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C468" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D468" t="inlineStr"/>
+    </row>
+    <row r="469">
+      <c r="A469" s="1" t="n">
+        <v>467</v>
+      </c>
+      <c r="B469" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C469" t="n">
+        <v>0.06231269836425781</v>
+      </c>
+      <c r="D469" t="n">
+        <v>1.033189582824707</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" s="1" t="n">
+        <v>468</v>
+      </c>
+      <c r="B470" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C470" t="n">
+        <v>0.0739585816860199</v>
+      </c>
+      <c r="D470" t="n">
+        <v>1.028897380828858</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" s="1" t="n">
+        <v>469</v>
+      </c>
+      <c r="B471" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C471" t="n">
+        <v>0.1092670679092407</v>
+      </c>
+      <c r="D471" t="n">
+        <v>1.044890689849854</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" s="1" t="n">
+        <v>470</v>
+      </c>
+      <c r="B472" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C472" t="n">
+        <v>0.09433099031448364</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1.043328475952148</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" s="1" t="n">
+        <v>471</v>
+      </c>
+      <c r="B473" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C473" t="n">
+        <v>0.0928002953529358</v>
+      </c>
+      <c r="D473" t="n">
+        <v>1.037442398071289</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" s="1" t="n">
+        <v>472</v>
+      </c>
+      <c r="B474" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C474" t="n">
+        <v>0.08539143204689026</v>
+      </c>
+      <c r="D474" t="n">
+        <v>1.035169982910156</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" s="1" t="n">
+        <v>473</v>
+      </c>
+      <c r="B475" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="C475" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D475" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" s="1" t="n">
+        <v>474</v>
+      </c>
+      <c r="B476" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C476" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D476" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" s="1" t="n">
+        <v>475</v>
+      </c>
+      <c r="B477" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C477" t="n">
+        <v>0.09792890548706054</v>
+      </c>
+      <c r="D477" t="n">
+        <v>1.043336391448975</v>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" s="1" t="n">
+        <v>476</v>
+      </c>
+      <c r="B478" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C478" t="n">
+        <v>0.08272455930709839</v>
+      </c>
+      <c r="D478" t="n">
+        <v>1.033150100708008</v>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" s="1" t="n">
+        <v>477</v>
+      </c>
+      <c r="B479" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C479" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D479" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" s="1" t="n">
+        <v>478</v>
+      </c>
+      <c r="B480" t="n">
+        <v>0.84</v>
+      </c>
+      <c r="C480" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D480" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" s="1" t="n">
+        <v>479</v>
+      </c>
+      <c r="B481" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C481" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D481" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" s="1" t="n">
+        <v>480</v>
+      </c>
+      <c r="B482" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C482" t="n">
+        <v>0.07286185026168823</v>
+      </c>
+      <c r="D482" t="n">
+        <v>1.042034435272217</v>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" s="1" t="n">
+        <v>481</v>
+      </c>
+      <c r="B483" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C483" t="n">
+        <v>0.09831552505493164</v>
+      </c>
+      <c r="D483" t="n">
+        <v>1.039091396331787</v>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" s="1" t="n">
+        <v>482</v>
+      </c>
+      <c r="B484" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C484" t="n">
+        <v>0.08917081952095032</v>
+      </c>
+      <c r="D484" t="n">
+        <v>1.04367561340332</v>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" s="1" t="n">
+        <v>483</v>
+      </c>
+      <c r="B485" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C485" t="n">
+        <v>0.08099660873413086</v>
+      </c>
+      <c r="D485" t="n">
+        <v>1.042389488220215</v>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" s="1" t="n">
+        <v>484</v>
+      </c>
+      <c r="B486" t="n">
+        <v>0.85</v>
+      </c>
+      <c r="C486" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D486" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" s="1" t="n">
+        <v>485</v>
+      </c>
+      <c r="B487" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C487" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D487" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" s="1" t="n">
+        <v>486</v>
+      </c>
+      <c r="B488" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="C488" t="n">
+        <v>0.09242156744003296</v>
+      </c>
+      <c r="D488" t="n">
+        <v>1.045190525054932</v>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" s="1" t="n">
+        <v>487</v>
+      </c>
+      <c r="B489" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C489" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D489" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" s="1" t="n">
+        <v>488</v>
+      </c>
+      <c r="B490" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C490" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D490" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" s="1" t="n">
+        <v>489</v>
+      </c>
+      <c r="B491" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C491" t="n">
+        <v>0.09826028943061829</v>
+      </c>
+      <c r="D491" t="n">
+        <v>1.037615966796875</v>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" s="1" t="n">
+        <v>490</v>
+      </c>
+      <c r="B492" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C492" t="n">
+        <v>0.09602737426757812</v>
+      </c>
+      <c r="D492" t="n">
+        <v>1.044519901275635</v>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" s="1" t="n">
+        <v>491</v>
+      </c>
+      <c r="B493" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C493" t="n">
+        <v>0.09513578414916993</v>
+      </c>
+      <c r="D493" t="n">
+        <v>1.037205696105957</v>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" s="1" t="n">
+        <v>492</v>
+      </c>
+      <c r="B494" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="C494" t="n">
+        <v>0.1162498712539673</v>
+      </c>
+      <c r="D494" t="n">
+        <v>1.045940113067627</v>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" s="1" t="n">
+        <v>493</v>
+      </c>
+      <c r="B495" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C495" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D495" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" s="1" t="n">
+        <v>494</v>
+      </c>
+      <c r="B496" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C496" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D496" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" s="1" t="n">
+        <v>495</v>
+      </c>
+      <c r="B497" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C497" t="n">
+        <v>0.07984464764595031</v>
+      </c>
+      <c r="D497" t="n">
+        <v>1.038775825500488</v>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" s="1" t="n">
+        <v>496</v>
+      </c>
+      <c r="B498" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C498" t="n">
+        <v>0.09217697381973267</v>
+      </c>
+      <c r="D498" t="n">
+        <v>1.043651962280273</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="1" t="n">
+        <v>497</v>
+      </c>
+      <c r="B499" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.09726613163948059</v>
+      </c>
+      <c r="D499" t="n">
+        <v>1.044314765930176</v>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" s="1" t="n">
+        <v>498</v>
+      </c>
+      <c r="B500" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C500" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D500" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" s="1" t="n">
+        <v>499</v>
+      </c>
+      <c r="B501" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="C501" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D501" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" s="1" t="n">
+        <v>500</v>
+      </c>
+      <c r="B502" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C502" t="n">
+        <v>0.07739869356155396</v>
+      </c>
+      <c r="D502" t="n">
+        <v>1.045009040832519</v>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" s="1" t="n">
+        <v>501</v>
+      </c>
+      <c r="B503" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C503" t="n">
+        <v>0.07212017774581909</v>
+      </c>
+      <c r="D503" t="n">
+        <v>1.036763858795166</v>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" s="1" t="n">
+        <v>502</v>
+      </c>
+      <c r="B504" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="C504" t="n">
+        <v>0.08007346391677857</v>
+      </c>
+      <c r="D504" t="n">
+        <v>1.035674953460693</v>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" s="1" t="n">
+        <v>503</v>
+      </c>
+      <c r="B505" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C505" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D505" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" s="1" t="n">
+        <v>504</v>
+      </c>
+      <c r="B506" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C506" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D506" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" s="1" t="n">
+        <v>505</v>
+      </c>
+      <c r="B507" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C507" t="n">
+        <v>0.06206810474395752</v>
+      </c>
+      <c r="D507" t="n">
+        <v>1.031824588775635</v>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" s="1" t="n">
+        <v>506</v>
+      </c>
+      <c r="B508" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C508" t="n">
+        <v>0.1075391292572021</v>
+      </c>
+      <c r="D508" t="n">
+        <v>1.048015213012695</v>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" s="1" t="n">
+        <v>507</v>
+      </c>
+      <c r="B509" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C509" t="n">
+        <v>0.08832657337188721</v>
+      </c>
+      <c r="D509" t="n">
+        <v>1.034594058990479</v>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" s="1" t="n">
+        <v>508</v>
+      </c>
+      <c r="B510" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="C510" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D510" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" s="1" t="n">
+        <v>509</v>
+      </c>
+      <c r="B511" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C511" t="n">
+        <v>0.08207756280899048</v>
+      </c>
+      <c r="D511" t="n">
+        <v>1.045088005065918</v>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" s="1" t="n">
+        <v>510</v>
+      </c>
+      <c r="B512" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C512" t="n">
+        <v>0.1066633224487305</v>
+      </c>
+      <c r="D512" t="n">
+        <v>1.047076320648193</v>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" s="1" t="n">
+        <v>511</v>
+      </c>
+      <c r="B513" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="C513" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D513" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" s="1" t="n">
+        <v>512</v>
+      </c>
+      <c r="B514" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="C514" t="n">
+        <v>0.08817666172981262</v>
+      </c>
+      <c r="D514" t="n">
+        <v>1.039320278167725</v>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" s="1" t="n">
+        <v>513</v>
+      </c>
+      <c r="B515" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C515" t="n">
+        <v>0.09369977712631225</v>
+      </c>
+      <c r="D515" t="n">
+        <v>1.045419311523438</v>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" s="1" t="n">
+        <v>514</v>
+      </c>
+      <c r="B516" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C516" t="n">
+        <v>0.09425997734069824</v>
+      </c>
+      <c r="D516" t="n">
+        <v>1.043107509613037</v>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" s="1" t="n">
+        <v>515</v>
+      </c>
+      <c r="B517" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C517" t="n">
+        <v>0.08403432369232178</v>
+      </c>
+      <c r="D517" t="n">
+        <v>1.032968711853027</v>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" s="1" t="n">
+        <v>516</v>
+      </c>
+      <c r="B518" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C518" t="n">
+        <v>0.04606685042381287</v>
+      </c>
+      <c r="D518" t="n">
+        <v>1.04319429397583</v>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" s="1" t="n">
+        <v>517</v>
+      </c>
+      <c r="B519" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C519" t="n">
+        <v>0.1192481279373169</v>
+      </c>
+      <c r="D519" t="n">
+        <v>1.048512268066406</v>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" s="1" t="n">
+        <v>518</v>
+      </c>
+      <c r="B520" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C520" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D520" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" s="1" t="n">
+        <v>519</v>
+      </c>
+      <c r="B521" t="n">
+        <v>0.93</v>
+      </c>
+      <c r="C521" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D521" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" s="1" t="n">
+        <v>520</v>
+      </c>
+      <c r="B522" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C522" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D522" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" s="1" t="n">
+        <v>521</v>
+      </c>
+      <c r="B523" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C523" t="n">
+        <v>0.1021264672279358</v>
+      </c>
+      <c r="D523" t="n">
+        <v>1.047952079772949</v>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" s="1" t="n">
+        <v>522</v>
+      </c>
+      <c r="B524" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="C524" t="n">
+        <v>0.08468132019042969</v>
+      </c>
+      <c r="D524" t="n">
+        <v>1.035643482208252</v>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" s="1" t="n">
+        <v>523</v>
+      </c>
+      <c r="B525" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C525" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D525" t="inlineStr"/>
+    </row>
+    <row r="526">
+      <c r="A526" s="1" t="n">
+        <v>524</v>
+      </c>
+      <c r="B526" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C526" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D526" t="inlineStr"/>
+    </row>
+    <row r="527">
+      <c r="A527" s="1" t="n">
+        <v>525</v>
+      </c>
+      <c r="B527" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C527" t="n">
+        <v>0.07562341094017029</v>
+      </c>
+      <c r="D527" t="n">
+        <v>1.031169700622559</v>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" s="1" t="n">
+        <v>526</v>
+      </c>
+      <c r="B528" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C528" t="n">
+        <v>0.1025998830795288</v>
+      </c>
+      <c r="D528" t="n">
+        <v>1.0483229637146</v>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" s="1" t="n">
+        <v>527</v>
+      </c>
+      <c r="B529" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C529" t="n">
+        <v>0.088807874917984</v>
+      </c>
+      <c r="D529" t="n">
+        <v>1.035982704162598</v>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" s="1" t="n">
+        <v>528</v>
+      </c>
+      <c r="B530" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C530" t="n">
+        <v>0.08408955335617066</v>
+      </c>
+      <c r="D530" t="n">
+        <v>1.032700443267822</v>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" s="1" t="n">
+        <v>529</v>
+      </c>
+      <c r="B531" t="n">
+        <v>0.95</v>
+      </c>
+      <c r="C531" t="n">
+        <v>0.107357656955719</v>
+      </c>
+      <c r="D531" t="n">
+        <v>1.049056720733643</v>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" s="1" t="n">
+        <v>530</v>
+      </c>
+      <c r="B532" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C532" t="n">
+        <v>0.05210282802581787</v>
+      </c>
+      <c r="D532" t="n">
+        <v>1.045088005065918</v>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" s="1" t="n">
+        <v>531</v>
+      </c>
+      <c r="B533" t="n">
+        <v>0.96</v>
+      </c>
+      <c r="C533" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D533" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" s="1" t="n">
+        <v>532</v>
+      </c>
+      <c r="B534" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C534" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D534" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" s="1" t="n">
+        <v>533</v>
+      </c>
+      <c r="B535" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C535" t="n">
+        <v>0.09496220350265502</v>
+      </c>
+      <c r="D535" t="n">
+        <v>1.044653987884522</v>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" s="1" t="n">
+        <v>534</v>
+      </c>
+      <c r="B536" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C536" t="n">
+        <v>0.09923078417778015</v>
+      </c>
+      <c r="D536" t="n">
+        <v>1.046389865875244</v>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" s="1" t="n">
+        <v>535</v>
+      </c>
+      <c r="B537" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C537" t="n">
+        <v>0.1097404837608337</v>
+      </c>
+      <c r="D537" t="n">
+        <v>1.046689701080322</v>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" s="1" t="n">
+        <v>536</v>
+      </c>
+      <c r="B538" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C538" t="n">
+        <v>0.1128334283828735</v>
+      </c>
+      <c r="D538" t="n">
+        <v>1.050334930419922</v>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" s="1" t="n">
+        <v>537</v>
+      </c>
+      <c r="B539" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C539" t="n">
+        <v>0.07054214477539063</v>
+      </c>
+      <c r="D539" t="n">
+        <v>1.031871891021729</v>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" s="1" t="n">
+        <v>538</v>
+      </c>
+      <c r="B540" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="C540" t="n">
+        <v>0.09476494789123535</v>
+      </c>
+      <c r="D540" t="n">
+        <v>1.035635566711426</v>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" s="1" t="n">
+        <v>539</v>
+      </c>
+      <c r="B541" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C541" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D541" t="n">
+        <v>1.05824089050293</v>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" s="1" t="n">
+        <v>540</v>
+      </c>
+      <c r="B542" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C542" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D542" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" s="1" t="n">
+        <v>541</v>
+      </c>
+      <c r="B543" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C543" t="n">
+        <v>0.05884891748428345</v>
+      </c>
+      <c r="D543" t="n">
+        <v>1.025520324707031</v>
+      </c>
+    </row>
+    <row r="544">
+      <c r="A544" s="1" t="n">
+        <v>542</v>
+      </c>
+      <c r="B544" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="C544" t="n">
+        <v>0.08607787489891053</v>
+      </c>
+      <c r="D544" t="n">
+        <v>1.032392692565918</v>
+      </c>
+    </row>
+    <row r="545">
+      <c r="A545" s="1" t="n">
+        <v>543</v>
+      </c>
+      <c r="B545" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C545" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D545" t="inlineStr"/>
+    </row>
+    <row r="546">
+      <c r="A546" s="1" t="n">
+        <v>544</v>
+      </c>
+      <c r="B546" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C546" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D546" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="547">
+      <c r="A547" s="1" t="n">
+        <v>545</v>
+      </c>
+      <c r="B547" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C547" t="n">
+        <v>0.09609049558639526</v>
+      </c>
+      <c r="D547" t="n">
+        <v>1.035540866851807</v>
+      </c>
+    </row>
+    <row r="548">
+      <c r="A548" s="1" t="n">
+        <v>546</v>
+      </c>
+      <c r="B548" t="n">
+        <v>0.99</v>
+      </c>
+      <c r="C548" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D548" t="n">
+        <v>1.058248805999756</v>
+      </c>
+    </row>
+    <row r="549">
+      <c r="A549" s="1" t="n">
+        <v>547</v>
+      </c>
+      <c r="B549" t="n">
+        <v>1</v>
+      </c>
+      <c r="C549" t="n">
+        <v>1.058248805999756</v>
+      </c>
+      <c r="D549" t="inlineStr"/>
+    </row>
+    <row r="550">
+      <c r="A550" s="1" t="n">
+        <v>548</v>
+      </c>
+      <c r="B550" t="n">
+        <v>1</v>
+      </c>
+      <c r="C550" t="n">
+        <v>0.07334315180778503</v>
+      </c>
+      <c r="D550" t="n">
+        <v>1.039478015899658</v>
+      </c>
+    </row>
+    <row r="551">
+      <c r="A551" s="1" t="n">
+        <v>549</v>
+      </c>
+      <c r="B551" t="n">
+        <v>1</v>
+      </c>
+      <c r="C551" t="n">
+        <v>0.0928949773311615</v>
+      </c>
+      <c r="D551" t="n">
+        <v>1.041458511352539</v>
+      </c>
+    </row>
+    <row r="552">
+      <c r="A552" s="1" t="n">
+        <v>550</v>
+      </c>
+      <c r="B552" t="n">
+        <v>1</v>
+      </c>
+      <c r="C552" t="n">
+        <v>0.106884241104126</v>
+      </c>
+      <c r="D552" t="n">
+        <v>1.043004989624023</v>
+      </c>
+    </row>
+    <row r="553">
+      <c r="A553" s="1" t="n">
+        <v>551</v>
+      </c>
+      <c r="B553" t="n">
+        <v>1</v>
+      </c>
+      <c r="C553" t="n">
+        <v>0.09458347558975219</v>
+      </c>
+      <c r="D553" t="n">
+        <v>1.045703411102295</v>
+      </c>
+    </row>
+    <row r="554">
+      <c r="A554" s="1" t="n">
+        <v>552</v>
+      </c>
+      <c r="B554" t="n">
+        <v>1</v>
+      </c>
+      <c r="C554" t="n">
+        <v>0.1061583518981934</v>
+      </c>
+      <c r="D554" t="n">
+        <v>1.046602916717529</v>
+      </c>
+    </row>
+    <row r="555">
+      <c r="A555" s="1" t="n">
+        <v>553</v>
+      </c>
+      <c r="B555" t="n">
+        <v>1</v>
+      </c>
+      <c r="C555" t="n">
+        <v>1.05824089050293</v>
+      </c>
+      <c r="D555" t="n">
         <v>1.05824089050293</v>
       </c>
     </row>
